--- a/dataanalysis/alert/0703.xlsx
+++ b/dataanalysis/alert/0703.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="14605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="209">
   <si>
     <t>序号</t>
   </si>
@@ -119,10 +119,10 @@
     <t>脑机</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>阳普医疗</t>
-  </si>
-  <si>
-    <t>是</t>
   </si>
   <si>
     <t>台基股份</t>
@@ -667,7 +667,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,6 +685,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDE322C"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -877,6 +883,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFE9E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC9C7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -884,12 +896,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEFCDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE9E8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,16 +1212,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1224,119 +1227,122 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1355,29 +1361,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1654,13 +1670,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1911,18 +1920,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R90"/>
+      <selection activeCell="A2" sqref="A2:V90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="14" max="15" width="11.5"/>
+    <col min="14" max="15" width="11.5045045045045"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:20">
+    <row r="1" ht="24.85" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2006,13 +2015,19 @@
       <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="9"/>
+      <c r="H2" s="4">
+        <v>-1.08</v>
+      </c>
+      <c r="I2" s="4">
+        <v>16.1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>2.03</v>
+      </c>
       <c r="K2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="4">
         <v>1</v>
       </c>
@@ -2028,13 +2043,23 @@
       <c r="Q2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="R2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="15">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2056,13 +2081,19 @@
       <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="9"/>
+      <c r="H3" s="4">
+        <v>-2.96</v>
+      </c>
+      <c r="I3" s="4">
+        <v>7.09</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
       <c r="K3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="4">
         <v>2</v>
       </c>
@@ -2078,13 +2109,23 @@
       <c r="Q3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="R3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0</v>
+      </c>
+      <c r="V3" s="15">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2106,13 +2147,19 @@
       <c r="G4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="9"/>
+      <c r="H4" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="I4" s="4">
+        <v>10.97</v>
+      </c>
+      <c r="J4" s="9">
+        <v>11.6</v>
+      </c>
       <c r="K4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="4">
         <v>9</v>
       </c>
@@ -2122,19 +2169,29 @@
       <c r="O4" s="4">
         <v>15416697</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="12">
         <v>0.58</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="R4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2145,7 +2202,7 @@
         <v>300030</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4">
         <v>-0.89</v>
@@ -2156,13 +2213,19 @@
       <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9"/>
+      <c r="H5" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="I5" s="4">
+        <v>8.56</v>
+      </c>
+      <c r="J5" s="9">
+        <v>9.74</v>
+      </c>
       <c r="K5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="4">
         <v>1</v>
       </c>
@@ -2179,12 +2242,22 @@
         <v>23</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20">
+        <v>23</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2206,13 +2279,19 @@
       <c r="G6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="9"/>
+      <c r="H6" s="4">
+        <v>-2.56</v>
+      </c>
+      <c r="I6" s="4">
+        <v>42.41</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1.46</v>
+      </c>
       <c r="K6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="4">
         <v>3</v>
       </c>
@@ -2228,13 +2307,23 @@
       <c r="Q6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="R6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="14">
+        <v>0</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2256,13 +2345,19 @@
       <c r="G7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="9"/>
+      <c r="H7" s="4">
+        <v>-1.67</v>
+      </c>
+      <c r="I7" s="4">
+        <v>13.86</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.58</v>
+      </c>
       <c r="K7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="4">
         <v>3</v>
       </c>
@@ -2278,13 +2373,23 @@
       <c r="Q7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="R7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="17">
+        <v>1</v>
+      </c>
+      <c r="V7" s="15">
+        <v>9.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2306,13 +2411,19 @@
       <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="9"/>
+      <c r="H8" s="4">
+        <v>-2.64</v>
+      </c>
+      <c r="I8" s="4">
+        <v>9.86</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.2</v>
+      </c>
       <c r="K8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="4">
         <v>2</v>
       </c>
@@ -2328,13 +2439,23 @@
       <c r="Q8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="R8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="14">
+        <v>0</v>
+      </c>
+      <c r="V8" s="15">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2356,13 +2477,19 @@
       <c r="G9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="9"/>
+      <c r="H9" s="4">
+        <v>-1.29</v>
+      </c>
+      <c r="I9" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1.43</v>
+      </c>
       <c r="K9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="4">
         <v>2</v>
       </c>
@@ -2378,13 +2505,23 @@
       <c r="Q9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="R9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="14">
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2406,13 +2543,19 @@
       <c r="G10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="9"/>
+      <c r="H10" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>34.26</v>
+      </c>
+      <c r="J10" s="9">
+        <v>7.03</v>
+      </c>
       <c r="K10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="4">
         <v>13</v>
       </c>
@@ -2428,13 +2571,23 @@
       <c r="Q10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="R10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2456,13 +2609,19 @@
       <c r="G11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="9"/>
+      <c r="H11" s="4">
+        <v>-2.02</v>
+      </c>
+      <c r="I11" s="4">
+        <v>11.66</v>
+      </c>
+      <c r="J11" s="9">
+        <v>2.28</v>
+      </c>
       <c r="K11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="4">
         <v>1</v>
       </c>
@@ -2472,19 +2631,29 @@
       <c r="O11" s="4">
         <v>100167617</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="12">
         <v>0.62</v>
       </c>
       <c r="Q11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="R11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2506,13 +2675,19 @@
       <c r="G12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="9"/>
+      <c r="H12" s="4">
+        <v>-6.45</v>
+      </c>
+      <c r="I12" s="4">
+        <v>6.98</v>
+      </c>
+      <c r="J12" s="9">
+        <v>2.35</v>
+      </c>
       <c r="K12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="4">
         <v>1</v>
       </c>
@@ -2528,13 +2703,23 @@
       <c r="Q12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="R12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2556,13 +2741,19 @@
       <c r="G13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="9"/>
+      <c r="H13" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="I13" s="4">
+        <v>9.19</v>
+      </c>
+      <c r="J13" s="9">
+        <v>5.03</v>
+      </c>
       <c r="K13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="4">
         <v>12</v>
       </c>
@@ -2578,13 +2769,23 @@
       <c r="Q13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="R13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2606,13 +2807,19 @@
       <c r="G14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="9"/>
+      <c r="H14" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="I14" s="4">
+        <v>15.11</v>
+      </c>
+      <c r="J14" s="9">
+        <v>8.71</v>
+      </c>
       <c r="K14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="4">
         <v>2</v>
       </c>
@@ -2622,19 +2829,29 @@
       <c r="O14" s="4">
         <v>-26357347</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="12">
         <v>0.7</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="R14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" s="14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2656,13 +2873,19 @@
       <c r="G15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="9"/>
+      <c r="H15" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="I15" s="4">
+        <v>19.53</v>
+      </c>
+      <c r="J15" s="9">
+        <v>7.43</v>
+      </c>
       <c r="K15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="4">
         <v>2</v>
       </c>
@@ -2678,13 +2901,23 @@
       <c r="Q15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="R15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" s="14">
+        <v>0</v>
+      </c>
+      <c r="V15" s="15">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2706,13 +2939,19 @@
       <c r="G16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="9"/>
+      <c r="H16" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="I16" s="4">
+        <v>45.66</v>
+      </c>
+      <c r="J16" s="9">
+        <v>2.28</v>
+      </c>
       <c r="K16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="4">
         <v>30</v>
       </c>
@@ -2728,13 +2967,23 @@
       <c r="Q16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="R16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2756,13 +3005,19 @@
       <c r="G17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="9"/>
+      <c r="H17" s="4">
+        <v>-4.5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>6.18</v>
+      </c>
+      <c r="J17" s="9">
+        <v>6.92</v>
+      </c>
       <c r="K17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="4">
         <v>4</v>
       </c>
@@ -2778,13 +3033,23 @@
       <c r="Q17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="R17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="14">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2806,13 +3071,19 @@
       <c r="G18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="9"/>
+      <c r="H18" s="4">
+        <v>-8.76</v>
+      </c>
+      <c r="I18" s="4">
+        <v>19.65</v>
+      </c>
+      <c r="J18" s="9">
+        <v>-2.24</v>
+      </c>
       <c r="K18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="4">
         <v>18</v>
       </c>
@@ -2822,19 +3093,29 @@
       <c r="O18" s="4">
         <v>121471855</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="12">
         <v>0.95</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="R18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="14">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2856,13 +3137,19 @@
       <c r="G19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="9"/>
+      <c r="H19" s="4">
+        <v>-0.94</v>
+      </c>
+      <c r="I19" s="4">
+        <v>12.67</v>
+      </c>
+      <c r="J19" s="9">
+        <v>8.29</v>
+      </c>
       <c r="K19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="4">
         <v>1</v>
       </c>
@@ -2878,13 +3165,23 @@
       <c r="Q19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="R19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" s="14">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2906,13 +3203,19 @@
       <c r="G20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="9"/>
+      <c r="H20" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="I20" s="4">
+        <v>21.93</v>
+      </c>
+      <c r="J20" s="9">
+        <v>4.68</v>
+      </c>
       <c r="K20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="4">
         <v>7</v>
       </c>
@@ -2928,13 +3231,23 @@
       <c r="Q20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="R20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U20" s="14">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2956,13 +3269,19 @@
       <c r="G21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="9"/>
+      <c r="H21" s="4">
+        <v>-0.87</v>
+      </c>
+      <c r="I21" s="4">
+        <v>6.18</v>
+      </c>
+      <c r="J21" s="9">
+        <v>6.92</v>
+      </c>
       <c r="K21" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="4">
         <v>1</v>
       </c>
@@ -2978,13 +3297,23 @@
       <c r="Q21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="R21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="14">
+        <v>0</v>
+      </c>
+      <c r="V21" s="15">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3006,13 +3335,19 @@
       <c r="G22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="9"/>
+      <c r="H22" s="4">
+        <v>-5.2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>8.04</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1.9</v>
+      </c>
       <c r="K22" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="4">
         <v>1</v>
       </c>
@@ -3022,19 +3357,29 @@
       <c r="O22" s="4">
         <v>65933869</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="12">
         <v>1.19</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="R22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" s="14">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3056,13 +3401,19 @@
       <c r="G23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="9"/>
+      <c r="H23" s="4">
+        <v>-2.59</v>
+      </c>
+      <c r="I23" s="4">
+        <v>14.31</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.07</v>
+      </c>
       <c r="K23" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="4">
         <v>3</v>
       </c>
@@ -3078,13 +3429,23 @@
       <c r="Q23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="R23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U23" s="14">
+        <v>0</v>
+      </c>
+      <c r="V23" s="15">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3097,7 +3458,7 @@
       <c r="D24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="6">
         <v>20</v>
       </c>
       <c r="F24" s="4">
@@ -3106,13 +3467,19 @@
       <c r="G24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="9"/>
+      <c r="H24" s="4">
+        <v>20.01</v>
+      </c>
+      <c r="I24" s="4">
+        <v>51.34</v>
+      </c>
+      <c r="J24" s="9">
+        <v>20.01</v>
+      </c>
       <c r="K24" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="4">
         <v>1</v>
       </c>
@@ -3122,19 +3489,29 @@
       <c r="O24" s="4">
         <v>77142542</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="12">
         <v>2.45</v>
       </c>
-      <c r="Q24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="Q24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U24" s="17">
+        <v>1</v>
+      </c>
+      <c r="V24" s="15">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3156,13 +3533,19 @@
       <c r="G25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="9"/>
+      <c r="H25" s="4">
+        <v>-5.33</v>
+      </c>
+      <c r="I25" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="J25" s="9">
+        <v>-2.63</v>
+      </c>
       <c r="K25" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="4">
         <v>2</v>
       </c>
@@ -3172,19 +3555,29 @@
       <c r="O25" s="4">
         <v>33903185</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="12">
         <v>2.02</v>
       </c>
       <c r="Q25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="R25" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" s="17">
+        <v>1</v>
+      </c>
+      <c r="V25" s="15">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3206,13 +3599,19 @@
       <c r="G26" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="9"/>
+      <c r="H26" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="I26" s="4">
+        <v>47.94</v>
+      </c>
+      <c r="J26" s="9">
+        <v>8.05</v>
+      </c>
       <c r="K26" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="4">
         <v>22</v>
       </c>
@@ -3228,13 +3627,23 @@
       <c r="Q26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="R26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U26" s="14">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3247,7 +3656,7 @@
       <c r="D27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="6">
         <v>10.45</v>
       </c>
       <c r="F27" s="4">
@@ -3256,13 +3665,19 @@
       <c r="G27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="9"/>
+      <c r="H27" s="4">
+        <v>-2.84</v>
+      </c>
+      <c r="I27" s="4">
+        <v>15.24</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.79</v>
+      </c>
       <c r="K27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="6"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="4">
         <v>18</v>
       </c>
@@ -3278,13 +3693,23 @@
       <c r="Q27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="R27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U27" s="14">
+        <v>0</v>
+      </c>
+      <c r="V27" s="15">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3306,13 +3731,19 @@
       <c r="G28" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="9"/>
+      <c r="H28" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="I28" s="4">
+        <v>27</v>
+      </c>
+      <c r="J28" s="9">
+        <v>5.14</v>
+      </c>
       <c r="K28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="4">
         <v>7</v>
       </c>
@@ -3328,13 +3759,23 @@
       <c r="Q28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="R28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" s="14">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3356,13 +3797,19 @@
       <c r="G29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="9"/>
+      <c r="H29" s="4">
+        <v>-5.23</v>
+      </c>
+      <c r="I29" s="4">
+        <v>11.21</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0.99</v>
+      </c>
       <c r="K29" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="4">
         <v>3</v>
       </c>
@@ -3378,13 +3825,23 @@
       <c r="Q29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="R29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U29" s="14">
+        <v>0</v>
+      </c>
+      <c r="V29" s="15">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3406,13 +3863,19 @@
       <c r="G30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="9"/>
+      <c r="H30" s="4">
+        <v>0.29</v>
+      </c>
+      <c r="I30" s="4">
+        <v>21.45</v>
+      </c>
+      <c r="J30" s="9">
+        <v>2.83</v>
+      </c>
       <c r="K30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L30" s="6"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="4">
         <v>12</v>
       </c>
@@ -3428,13 +3891,23 @@
       <c r="Q30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="R30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U30" s="14">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3456,13 +3929,19 @@
       <c r="G31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="9"/>
+      <c r="H31" s="4">
+        <v>6.36</v>
+      </c>
+      <c r="I31" s="4">
+        <v>36.89</v>
+      </c>
+      <c r="J31" s="9">
+        <v>13.3</v>
+      </c>
       <c r="K31" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="L31" s="6"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="4">
         <v>7</v>
       </c>
@@ -3478,13 +3957,23 @@
       <c r="Q31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="R31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="14">
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3506,13 +3995,19 @@
       <c r="G32" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="9"/>
+      <c r="H32" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="I32" s="4">
+        <v>26.11</v>
+      </c>
+      <c r="J32" s="9">
+        <v>2.88</v>
+      </c>
       <c r="K32" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="6"/>
+      <c r="L32" s="11"/>
       <c r="M32" s="4">
         <v>4</v>
       </c>
@@ -3528,13 +4023,23 @@
       <c r="Q32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="R32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U32" s="14">
+        <v>0</v>
+      </c>
+      <c r="V32" s="15">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3556,13 +4061,19 @@
       <c r="G33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="9"/>
+      <c r="H33" s="4">
+        <v>-6.17</v>
+      </c>
+      <c r="I33" s="4">
+        <v>26.07</v>
+      </c>
+      <c r="J33" s="9">
+        <v>-0.04</v>
+      </c>
       <c r="K33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L33" s="6"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="4">
         <v>1</v>
       </c>
@@ -3578,13 +4089,23 @@
       <c r="Q33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="R33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U33" s="14">
+        <v>0</v>
+      </c>
+      <c r="V33" s="15">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3606,13 +4127,19 @@
       <c r="G34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="9"/>
+      <c r="H34" s="4">
+        <v>-3.97</v>
+      </c>
+      <c r="I34" s="4">
+        <v>12.57</v>
+      </c>
+      <c r="J34" s="9">
+        <v>-0.24</v>
+      </c>
       <c r="K34" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="L34" s="11"/>
       <c r="M34" s="4">
         <v>3</v>
       </c>
@@ -3622,19 +4149,29 @@
       <c r="O34" s="4">
         <v>174758670</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="12">
         <v>0.64</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R34" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="R34" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U34" s="17">
+        <v>1</v>
+      </c>
+      <c r="V34" s="15">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3656,13 +4193,19 @@
       <c r="G35" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="9"/>
+      <c r="H35" s="4">
+        <v>6.97</v>
+      </c>
+      <c r="I35" s="4">
+        <v>21.38</v>
+      </c>
+      <c r="J35" s="9">
+        <v>7.93</v>
+      </c>
       <c r="K35" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L35" s="6"/>
+      <c r="L35" s="11"/>
       <c r="M35" s="4">
         <v>13</v>
       </c>
@@ -3678,13 +4221,23 @@
       <c r="Q35" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="R35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U35" s="14">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3706,13 +4259,19 @@
       <c r="G36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="9"/>
+      <c r="H36" s="4">
+        <v>-3.94</v>
+      </c>
+      <c r="I36" s="4">
+        <v>40.87</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.76</v>
+      </c>
       <c r="K36" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L36" s="6"/>
+      <c r="L36" s="11"/>
       <c r="M36" s="4">
         <v>1</v>
       </c>
@@ -3722,17 +4281,27 @@
       <c r="O36" s="4">
         <v>221626582</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P36" s="12">
         <v>1.54</v>
       </c>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="Q36" s="11"/>
+      <c r="R36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U36" s="17">
+        <v>1</v>
+      </c>
+      <c r="V36" s="15">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3754,13 +4323,19 @@
       <c r="G37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="9"/>
+      <c r="H37" s="4">
+        <v>-3.07</v>
+      </c>
+      <c r="I37" s="4">
+        <v>14.85</v>
+      </c>
+      <c r="J37" s="9">
+        <v>-1</v>
+      </c>
       <c r="K37" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L37" s="6"/>
+      <c r="L37" s="11"/>
       <c r="M37" s="4">
         <v>3</v>
       </c>
@@ -3776,13 +4351,23 @@
       <c r="Q37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R37" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="R37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U37" s="14">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3804,13 +4389,19 @@
       <c r="G38" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="9"/>
+      <c r="H38" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="I38" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="J38" s="9">
+        <v>1.99</v>
+      </c>
       <c r="K38" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="6"/>
+      <c r="L38" s="11"/>
       <c r="M38" s="4">
         <v>8</v>
       </c>
@@ -3820,19 +4411,29 @@
       <c r="O38" s="4">
         <v>265300891</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P38" s="12">
         <v>1.58</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="R38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U38" s="14">
+        <v>0</v>
+      </c>
+      <c r="V38" s="15">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3854,13 +4455,19 @@
       <c r="G39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="9"/>
+      <c r="H39" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="I39" s="4">
+        <v>14.74</v>
+      </c>
+      <c r="J39" s="9">
+        <v>4.1</v>
+      </c>
       <c r="K39" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="6"/>
+      <c r="L39" s="11"/>
       <c r="M39" s="4">
         <v>5</v>
       </c>
@@ -3876,13 +4483,23 @@
       <c r="Q39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="R39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U39" s="14">
+        <v>0</v>
+      </c>
+      <c r="V39" s="15">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3904,13 +4521,19 @@
       <c r="G40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="9"/>
+      <c r="H40" s="4">
+        <v>-9.85</v>
+      </c>
+      <c r="I40" s="4">
+        <v>28.43</v>
+      </c>
+      <c r="J40" s="9">
+        <v>-1.35</v>
+      </c>
       <c r="K40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L40" s="6"/>
+      <c r="L40" s="11"/>
       <c r="M40" s="4">
         <v>13</v>
       </c>
@@ -3920,19 +4543,29 @@
       <c r="O40" s="4">
         <v>82686548</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P40" s="12">
         <v>0.31</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="R40" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U40" s="14">
+        <v>0</v>
+      </c>
+      <c r="V40" s="15">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3954,13 +4587,19 @@
       <c r="G41" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="9"/>
+      <c r="H41" s="4">
+        <v>8.57</v>
+      </c>
+      <c r="I41" s="4">
+        <v>23.32</v>
+      </c>
+      <c r="J41" s="9">
+        <v>12.93</v>
+      </c>
       <c r="K41" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L41" s="6"/>
+      <c r="L41" s="11"/>
       <c r="M41" s="4">
         <v>8</v>
       </c>
@@ -3970,19 +4609,29 @@
       <c r="O41" s="4">
         <v>73554563</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P41" s="12">
         <v>1.31</v>
       </c>
       <c r="Q41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="R41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T41" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U41" s="17">
+        <v>1</v>
+      </c>
+      <c r="V41" s="15">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4004,13 +4653,19 @@
       <c r="G42" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="9"/>
+      <c r="H42" s="4">
+        <v>20</v>
+      </c>
+      <c r="I42" s="4">
+        <v>20.88</v>
+      </c>
+      <c r="J42" s="9">
+        <v>20</v>
+      </c>
       <c r="K42" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="L42" s="6"/>
+      <c r="L42" s="11"/>
       <c r="M42" s="4">
         <v>5</v>
       </c>
@@ -4020,19 +4675,29 @@
       <c r="O42" s="4">
         <v>34723910</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42" s="12">
         <v>1.17</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="R42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T42" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U42" s="14">
+        <v>0</v>
+      </c>
+      <c r="V42" s="15">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4054,13 +4719,19 @@
       <c r="G43" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="9"/>
+      <c r="H43" s="4">
+        <v>-3.59</v>
+      </c>
+      <c r="I43" s="4">
+        <v>9.03</v>
+      </c>
+      <c r="J43" s="9">
+        <v>-1.85</v>
+      </c>
       <c r="K43" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="L43" s="6"/>
+      <c r="L43" s="11"/>
       <c r="M43" s="4">
         <v>2</v>
       </c>
@@ -4076,13 +4747,23 @@
       <c r="Q43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="R43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U43" s="14">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4104,13 +4785,19 @@
       <c r="G44" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="9"/>
+      <c r="H44" s="4">
+        <v>-6.09</v>
+      </c>
+      <c r="I44" s="4">
+        <v>8.21</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0</v>
+      </c>
       <c r="K44" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="L44" s="6"/>
+      <c r="L44" s="11"/>
       <c r="M44" s="4">
         <v>1</v>
       </c>
@@ -4126,13 +4813,23 @@
       <c r="Q44" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="R44" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S44" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U44" s="14">
+        <v>0</v>
+      </c>
+      <c r="V44" s="15">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4154,13 +4851,19 @@
       <c r="G45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="9"/>
+      <c r="H45" s="4">
+        <v>2.81</v>
+      </c>
+      <c r="I45" s="4">
+        <v>22.88</v>
+      </c>
+      <c r="J45" s="9">
+        <v>7.17</v>
+      </c>
       <c r="K45" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L45" s="6"/>
+      <c r="L45" s="11"/>
       <c r="M45" s="4">
         <v>14</v>
       </c>
@@ -4176,13 +4879,23 @@
       <c r="Q45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="R45" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T45" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U45" s="14">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4204,13 +4917,19 @@
       <c r="G46" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="9"/>
+      <c r="H46" s="4">
+        <v>-8.48</v>
+      </c>
+      <c r="I46" s="4">
+        <v>16.03</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
       <c r="K46" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L46" s="6"/>
+      <c r="L46" s="11"/>
       <c r="M46" s="4">
         <v>3</v>
       </c>
@@ -4227,12 +4946,22 @@
         <v>23</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-    </row>
-    <row r="47" spans="1:20">
+        <v>23</v>
+      </c>
+      <c r="S46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U46" s="14">
+        <v>0</v>
+      </c>
+      <c r="V46" s="15">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4254,13 +4983,19 @@
       <c r="G47" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="9"/>
+      <c r="H47" s="4">
+        <v>-2.33</v>
+      </c>
+      <c r="I47" s="4">
+        <v>35.83</v>
+      </c>
+      <c r="J47" s="9">
+        <v>-0.58</v>
+      </c>
       <c r="K47" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L47" s="6"/>
+      <c r="L47" s="11"/>
       <c r="M47" s="4">
         <v>6</v>
       </c>
@@ -4276,13 +5011,23 @@
       <c r="Q47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="R47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U47" s="14">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4304,13 +5049,19 @@
       <c r="G48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="9"/>
+      <c r="H48" s="4">
+        <v>3.98</v>
+      </c>
+      <c r="I48" s="4">
+        <v>35.89</v>
+      </c>
+      <c r="J48" s="9">
+        <v>14.26</v>
+      </c>
       <c r="K48" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L48" s="6"/>
+      <c r="L48" s="11"/>
       <c r="M48" s="4">
         <v>13</v>
       </c>
@@ -4326,13 +5077,23 @@
       <c r="Q48" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="R48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T48" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U48" s="14">
+        <v>0</v>
+      </c>
+      <c r="V48" s="15">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4354,13 +5115,19 @@
       <c r="G49" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="9"/>
+      <c r="H49" s="4">
+        <v>-2.37</v>
+      </c>
+      <c r="I49" s="4">
+        <v>13.84</v>
+      </c>
+      <c r="J49" s="9">
+        <v>2.67</v>
+      </c>
       <c r="K49" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="L49" s="6"/>
+      <c r="L49" s="11"/>
       <c r="M49" s="4">
         <v>3</v>
       </c>
@@ -4377,12 +5144,22 @@
         <v>23</v>
       </c>
       <c r="R49" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-    </row>
-    <row r="50" spans="1:20">
+        <v>23</v>
+      </c>
+      <c r="S49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U49" s="14">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4404,13 +5181,19 @@
       <c r="G50" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="9"/>
+      <c r="H50" s="4">
+        <v>3.12</v>
+      </c>
+      <c r="I50" s="4">
+        <v>30.39</v>
+      </c>
+      <c r="J50" s="9">
+        <v>5.26</v>
+      </c>
       <c r="K50" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L50" s="6"/>
+      <c r="L50" s="11"/>
       <c r="M50" s="4">
         <v>21</v>
       </c>
@@ -4426,13 +5209,23 @@
       <c r="Q50" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="R50" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S50" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T50" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U50" s="17">
+        <v>1</v>
+      </c>
+      <c r="V50" s="15">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4454,13 +5247,19 @@
       <c r="G51" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="9"/>
+      <c r="H51" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="I51" s="4">
+        <v>81.65</v>
+      </c>
+      <c r="J51" s="9">
+        <v>6.77</v>
+      </c>
       <c r="K51" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="L51" s="6"/>
+      <c r="L51" s="11"/>
       <c r="M51" s="4">
         <v>5</v>
       </c>
@@ -4476,13 +5275,23 @@
       <c r="Q51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="R51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T51" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U51" s="14">
+        <v>0</v>
+      </c>
+      <c r="V51" s="15">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4504,13 +5313,19 @@
       <c r="G52" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="9"/>
+      <c r="H52" s="4">
+        <v>-8.16</v>
+      </c>
+      <c r="I52" s="4">
+        <v>48.82</v>
+      </c>
+      <c r="J52" s="9">
+        <v>-2.36</v>
+      </c>
       <c r="K52" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="L52" s="6"/>
+      <c r="L52" s="11"/>
       <c r="M52" s="4">
         <v>2</v>
       </c>
@@ -4526,13 +5341,23 @@
       <c r="Q52" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="R52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U52" s="14">
+        <v>0</v>
+      </c>
+      <c r="V52" s="15">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4554,13 +5379,19 @@
       <c r="G53" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="9"/>
+      <c r="H53" s="4">
+        <v>10.19</v>
+      </c>
+      <c r="I53" s="4">
+        <v>24.11</v>
+      </c>
+      <c r="J53" s="9">
+        <v>16.47</v>
+      </c>
       <c r="K53" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L53" s="6"/>
+      <c r="L53" s="11"/>
       <c r="M53" s="4">
         <v>14</v>
       </c>
@@ -4576,13 +5407,23 @@
       <c r="Q53" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="R53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T53" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U53" s="14">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4604,13 +5445,19 @@
       <c r="G54" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="9"/>
+      <c r="H54" s="4">
+        <v>4.58</v>
+      </c>
+      <c r="I54" s="4">
+        <v>45.98</v>
+      </c>
+      <c r="J54" s="9">
+        <v>5.31</v>
+      </c>
       <c r="K54" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L54" s="6"/>
+      <c r="L54" s="11"/>
       <c r="M54" s="4">
         <v>4</v>
       </c>
@@ -4626,13 +5473,23 @@
       <c r="Q54" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R54" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="R54" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S54" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T54" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U54" s="14">
+        <v>0</v>
+      </c>
+      <c r="V54" s="15">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4654,13 +5511,19 @@
       <c r="G55" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="9"/>
+      <c r="H55" s="4">
+        <v>-0.37</v>
+      </c>
+      <c r="I55" s="4">
+        <v>11.08</v>
+      </c>
+      <c r="J55" s="9">
+        <v>2.88</v>
+      </c>
       <c r="K55" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="L55" s="6"/>
+      <c r="L55" s="11"/>
       <c r="M55" s="4">
         <v>10</v>
       </c>
@@ -4670,19 +5533,29 @@
       <c r="O55" s="4">
         <v>59981975</v>
       </c>
-      <c r="P55" s="11">
+      <c r="P55" s="12">
         <v>0.65</v>
       </c>
       <c r="Q55" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="R55" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S55" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T55" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U55" s="14">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4704,13 +5577,19 @@
       <c r="G56" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="9"/>
+      <c r="H56" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="I56" s="4">
+        <v>58.99</v>
+      </c>
+      <c r="J56" s="9">
+        <v>3.22</v>
+      </c>
       <c r="K56" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L56" s="6"/>
+      <c r="L56" s="11"/>
       <c r="M56" s="4">
         <v>3</v>
       </c>
@@ -4726,13 +5605,23 @@
       <c r="Q56" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="R56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U56" s="14">
+        <v>0</v>
+      </c>
+      <c r="V56" s="15">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4754,13 +5643,19 @@
       <c r="G57" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="9"/>
+      <c r="H57" s="4">
+        <v>4.58</v>
+      </c>
+      <c r="I57" s="4">
+        <v>24.85</v>
+      </c>
+      <c r="J57" s="9">
+        <v>6.38</v>
+      </c>
       <c r="K57" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="L57" s="6"/>
+      <c r="L57" s="11"/>
       <c r="M57" s="4">
         <v>3</v>
       </c>
@@ -4770,19 +5665,29 @@
       <c r="O57" s="4">
         <v>-96626483</v>
       </c>
-      <c r="P57" s="11">
+      <c r="P57" s="12">
         <v>0.37</v>
       </c>
       <c r="Q57" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R57" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="R57" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S57" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T57" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U57" s="14">
+        <v>0</v>
+      </c>
+      <c r="V57" s="15">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4804,13 +5709,19 @@
       <c r="G58" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="9"/>
+      <c r="H58" s="4">
+        <v>-6.27</v>
+      </c>
+      <c r="I58" s="4">
+        <v>31.75</v>
+      </c>
+      <c r="J58" s="9">
+        <v>0</v>
+      </c>
       <c r="K58" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="L58" s="6"/>
+      <c r="L58" s="11"/>
       <c r="M58" s="4">
         <v>4</v>
       </c>
@@ -4820,19 +5731,29 @@
       <c r="O58" s="4">
         <v>21926417</v>
       </c>
-      <c r="P58" s="11">
+      <c r="P58" s="12">
         <v>0.49</v>
       </c>
       <c r="Q58" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="R58" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S58" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T58" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U58" s="17">
+        <v>1</v>
+      </c>
+      <c r="V58" s="15">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4854,13 +5775,19 @@
       <c r="G59" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="9"/>
+      <c r="H59" s="4">
+        <v>-9.06</v>
+      </c>
+      <c r="I59" s="4">
+        <v>17.82</v>
+      </c>
+      <c r="J59" s="9">
+        <v>3.54</v>
+      </c>
       <c r="K59" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="L59" s="6"/>
+      <c r="L59" s="11"/>
       <c r="M59" s="4">
         <v>4</v>
       </c>
@@ -4873,16 +5800,26 @@
       <c r="P59" s="4">
         <v>-0.34</v>
       </c>
-      <c r="Q59" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="Q59" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U59" s="14">
+        <v>0</v>
+      </c>
+      <c r="V59" s="15">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4904,13 +5841,19 @@
       <c r="G60" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="9"/>
+      <c r="H60" s="4">
+        <v>4.55</v>
+      </c>
+      <c r="I60" s="4">
+        <v>31.87</v>
+      </c>
+      <c r="J60" s="9">
+        <v>6.59</v>
+      </c>
       <c r="K60" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="L60" s="6"/>
+      <c r="L60" s="11"/>
       <c r="M60" s="4">
         <v>2</v>
       </c>
@@ -4920,19 +5863,29 @@
       <c r="O60" s="4">
         <v>-9735468</v>
       </c>
-      <c r="P60" s="11">
+      <c r="P60" s="12">
         <v>0.38</v>
       </c>
       <c r="Q60" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R60" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="R60" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S60" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T60" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U60" s="14">
+        <v>0</v>
+      </c>
+      <c r="V60" s="15">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4954,13 +5907,19 @@
       <c r="G61" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="9"/>
+      <c r="H61" s="4">
+        <v>19.99</v>
+      </c>
+      <c r="I61" s="4">
+        <v>58.1</v>
+      </c>
+      <c r="J61" s="9">
+        <v>19.99</v>
+      </c>
       <c r="K61" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L61" s="6"/>
+      <c r="L61" s="11"/>
       <c r="M61" s="4">
         <v>3</v>
       </c>
@@ -4976,13 +5935,23 @@
       <c r="Q61" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="R61" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S61" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T61" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U61" s="14">
+        <v>0</v>
+      </c>
+      <c r="V61" s="15">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5004,13 +5973,19 @@
       <c r="G62" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="9"/>
+      <c r="H62" s="4">
+        <v>-2.46</v>
+      </c>
+      <c r="I62" s="4">
+        <v>16.66</v>
+      </c>
+      <c r="J62" s="9">
+        <v>5.04</v>
+      </c>
       <c r="K62" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="L62" s="6"/>
+      <c r="L62" s="11"/>
       <c r="M62" s="4">
         <v>3</v>
       </c>
@@ -5026,13 +6001,23 @@
       <c r="Q62" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R62" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="R62" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S62" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T62" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U62" s="14">
+        <v>0</v>
+      </c>
+      <c r="V62" s="15">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5054,13 +6039,19 @@
       <c r="G63" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="9"/>
+      <c r="H63" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="I63" s="4">
+        <v>37.7</v>
+      </c>
+      <c r="J63" s="9">
+        <v>6.59</v>
+      </c>
       <c r="K63" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L63" s="6"/>
+      <c r="L63" s="11"/>
       <c r="M63" s="4">
         <v>8</v>
       </c>
@@ -5070,19 +6061,29 @@
       <c r="O63" s="4">
         <v>44025947</v>
       </c>
-      <c r="P63" s="11">
+      <c r="P63" s="12">
         <v>1.56</v>
       </c>
       <c r="Q63" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R63" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="R63" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T63" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U63" s="14">
+        <v>0</v>
+      </c>
+      <c r="V63" s="15">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5104,13 +6105,19 @@
       <c r="G64" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="9"/>
+      <c r="H64" s="4">
+        <v>-0.36</v>
+      </c>
+      <c r="I64" s="4">
+        <v>39.55</v>
+      </c>
+      <c r="J64" s="9">
+        <v>2.59</v>
+      </c>
       <c r="K64" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="L64" s="6"/>
+      <c r="L64" s="11"/>
       <c r="M64" s="4">
         <v>4</v>
       </c>
@@ -5126,13 +6133,23 @@
       <c r="Q64" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="R64" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S64" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T64" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U64" s="17">
+        <v>1</v>
+      </c>
+      <c r="V64" s="15">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -5154,13 +6171,19 @@
       <c r="G65" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="9"/>
+      <c r="H65" s="4">
+        <v>-5.48</v>
+      </c>
+      <c r="I65" s="4">
+        <v>62</v>
+      </c>
+      <c r="J65" s="9">
+        <v>0</v>
+      </c>
       <c r="K65" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="L65" s="6"/>
+      <c r="L65" s="11"/>
       <c r="M65" s="4">
         <v>5</v>
       </c>
@@ -5176,13 +6199,23 @@
       <c r="Q65" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R65" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="R65" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S65" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T65" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U65" s="14">
+        <v>0</v>
+      </c>
+      <c r="V65" s="15">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -5195,7 +6228,7 @@
       <c r="D66" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="6">
         <v>19.99</v>
       </c>
       <c r="F66" s="4">
@@ -5204,13 +6237,19 @@
       <c r="G66" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="9"/>
+      <c r="H66" s="4">
+        <v>2.01</v>
+      </c>
+      <c r="I66" s="4">
+        <v>27.41</v>
+      </c>
+      <c r="J66" s="9">
+        <v>14.73</v>
+      </c>
       <c r="K66" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L66" s="6"/>
+      <c r="L66" s="11"/>
       <c r="M66" s="4">
         <v>1</v>
       </c>
@@ -5220,19 +6259,29 @@
       <c r="O66" s="4">
         <v>-36172958</v>
       </c>
-      <c r="P66" s="11">
+      <c r="P66" s="12">
         <v>4.37</v>
       </c>
-      <c r="Q66" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R66" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="Q66" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R66" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S66" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T66" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U66" s="17">
+        <v>1</v>
+      </c>
+      <c r="V66" s="15">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5245,7 +6294,7 @@
       <c r="D67" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="6">
         <v>20</v>
       </c>
       <c r="F67" s="4">
@@ -5254,13 +6303,19 @@
       <c r="G67" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="9"/>
+      <c r="H67" s="4">
+        <v>5.94</v>
+      </c>
+      <c r="I67" s="4">
+        <v>37.88</v>
+      </c>
+      <c r="J67" s="9">
+        <v>16.05</v>
+      </c>
       <c r="K67" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L67" s="6"/>
+      <c r="L67" s="11"/>
       <c r="M67" s="4">
         <v>10</v>
       </c>
@@ -5270,19 +6325,29 @@
       <c r="O67" s="4">
         <v>48056967</v>
       </c>
-      <c r="P67" s="11">
+      <c r="P67" s="12">
         <v>2.28</v>
       </c>
       <c r="Q67" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R67" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="R67" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S67" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T67" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U67" s="17">
+        <v>1</v>
+      </c>
+      <c r="V67" s="15">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5304,13 +6369,19 @@
       <c r="G68" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="9"/>
+      <c r="H68" s="4">
+        <v>-4.38</v>
+      </c>
+      <c r="I68" s="4">
+        <v>97.6</v>
+      </c>
+      <c r="J68" s="9">
+        <v>1.04</v>
+      </c>
       <c r="K68" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="L68" s="6"/>
+      <c r="L68" s="11"/>
       <c r="M68" s="4">
         <v>2</v>
       </c>
@@ -5326,13 +6397,23 @@
       <c r="Q68" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R68" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="R68" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S68" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T68" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U68" s="14">
+        <v>0</v>
+      </c>
+      <c r="V68" s="15">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5354,13 +6435,19 @@
       <c r="G69" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="9"/>
+      <c r="H69" s="4">
+        <v>-1.32</v>
+      </c>
+      <c r="I69" s="4">
+        <v>31.67</v>
+      </c>
+      <c r="J69" s="9">
+        <v>1.7</v>
+      </c>
       <c r="K69" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="L69" s="6"/>
+      <c r="L69" s="11"/>
       <c r="M69" s="4">
         <v>1</v>
       </c>
@@ -5376,13 +6463,23 @@
       <c r="Q69" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="R69" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S69" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T69" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U69" s="14">
+        <v>0</v>
+      </c>
+      <c r="V69" s="15">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5404,13 +6501,19 @@
       <c r="G70" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="9"/>
+      <c r="H70" s="4">
+        <v>-1.76</v>
+      </c>
+      <c r="I70" s="4">
+        <v>58</v>
+      </c>
+      <c r="J70" s="9">
+        <v>0.85</v>
+      </c>
       <c r="K70" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L70" s="6"/>
+      <c r="L70" s="11"/>
       <c r="M70" s="4">
         <v>4</v>
       </c>
@@ -5426,13 +6529,23 @@
       <c r="Q70" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R70" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="R70" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S70" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T70" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U70" s="14">
+        <v>0</v>
+      </c>
+      <c r="V70" s="15">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5454,13 +6567,19 @@
       <c r="G71" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="9"/>
+      <c r="H71" s="4">
+        <v>-5.04</v>
+      </c>
+      <c r="I71" s="4">
+        <v>21.41</v>
+      </c>
+      <c r="J71" s="9">
+        <v>-0.23</v>
+      </c>
       <c r="K71" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L71" s="6"/>
+      <c r="L71" s="11"/>
       <c r="M71" s="4">
         <v>1</v>
       </c>
@@ -5476,11 +6595,23 @@
       <c r="Q71" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R71" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="R71" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S71" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T71" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U71" s="14">
+        <v>0</v>
+      </c>
+      <c r="V71" s="15">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5502,13 +6633,19 @@
       <c r="G72" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="9"/>
+      <c r="H72" s="4">
+        <v>-9.26</v>
+      </c>
+      <c r="I72" s="4">
+        <v>48</v>
+      </c>
+      <c r="J72" s="9">
+        <v>2</v>
+      </c>
       <c r="K72" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L72" s="6"/>
+      <c r="L72" s="11"/>
       <c r="M72" s="4">
         <v>5</v>
       </c>
@@ -5518,17 +6655,29 @@
       <c r="O72" s="4">
         <v>32012250</v>
       </c>
-      <c r="P72" s="11">
+      <c r="P72" s="12">
         <v>1.22</v>
       </c>
       <c r="Q72" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R72" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="R72" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S72" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T72" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U72" s="14">
+        <v>0</v>
+      </c>
+      <c r="V72" s="15">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5550,13 +6699,19 @@
       <c r="G73" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="9"/>
+      <c r="H73" s="4">
+        <v>-4.69</v>
+      </c>
+      <c r="I73" s="4">
+        <v>31.17</v>
+      </c>
+      <c r="J73" s="9">
+        <v>-0.61</v>
+      </c>
       <c r="K73" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L73" s="6"/>
+      <c r="L73" s="11"/>
       <c r="M73" s="4">
         <v>5</v>
       </c>
@@ -5566,17 +6721,29 @@
       <c r="O73" s="4">
         <v>-16830246</v>
       </c>
-      <c r="P73" s="11">
+      <c r="P73" s="12">
         <v>1.08</v>
       </c>
       <c r="Q73" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R73" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="R73" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S73" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T73" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U73" s="14">
+        <v>0</v>
+      </c>
+      <c r="V73" s="15">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5598,13 +6765,19 @@
       <c r="G74" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="9"/>
+      <c r="H74" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I74" s="4">
+        <v>137.26</v>
+      </c>
+      <c r="J74" s="9">
+        <v>3.2</v>
+      </c>
       <c r="K74" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="L74" s="6"/>
+      <c r="L74" s="11"/>
       <c r="M74" s="4">
         <v>3</v>
       </c>
@@ -5620,11 +6793,23 @@
       <c r="Q74" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R74" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="R74" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S74" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T74" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U74" s="14">
+        <v>0</v>
+      </c>
+      <c r="V74" s="15">
+        <v>-2.28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5646,13 +6831,19 @@
       <c r="G75" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="9"/>
+      <c r="H75" s="4">
+        <v>-0.24</v>
+      </c>
+      <c r="I75" s="4">
+        <v>82.25</v>
+      </c>
+      <c r="J75" s="9">
+        <v>2.57</v>
+      </c>
       <c r="K75" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L75" s="6"/>
+      <c r="L75" s="11"/>
       <c r="M75" s="4">
         <v>1</v>
       </c>
@@ -5668,11 +6859,23 @@
       <c r="Q75" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R75" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="R75" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S75" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T75" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U75" s="17">
+        <v>1</v>
+      </c>
+      <c r="V75" s="15">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5694,13 +6897,19 @@
       <c r="G76" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="9"/>
+      <c r="H76" s="4">
+        <v>-4.13</v>
+      </c>
+      <c r="I76" s="4">
+        <v>33.66</v>
+      </c>
+      <c r="J76" s="9">
+        <v>0.69</v>
+      </c>
       <c r="K76" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="L76" s="6"/>
+      <c r="L76" s="11"/>
       <c r="M76" s="4">
         <v>1</v>
       </c>
@@ -5716,11 +6925,23 @@
       <c r="Q76" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R76" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="R76" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S76" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T76" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U76" s="14">
+        <v>0</v>
+      </c>
+      <c r="V76" s="15">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5742,13 +6963,19 @@
       <c r="G77" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="9"/>
+      <c r="H77" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I77" s="4">
+        <v>27.7</v>
+      </c>
+      <c r="J77" s="9">
+        <v>4.33</v>
+      </c>
       <c r="K77" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="L77" s="6"/>
+      <c r="L77" s="11"/>
       <c r="M77" s="4">
         <v>8</v>
       </c>
@@ -5764,11 +6991,23 @@
       <c r="Q77" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R77" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="R77" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S77" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T77" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U77" s="14">
+        <v>0</v>
+      </c>
+      <c r="V77" s="15">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5790,13 +7029,19 @@
       <c r="G78" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="9"/>
+      <c r="H78" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="I78" s="4">
+        <v>14.78</v>
+      </c>
+      <c r="J78" s="9">
+        <v>3.79</v>
+      </c>
       <c r="K78" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L78" s="6"/>
+      <c r="L78" s="11"/>
       <c r="M78" s="4">
         <v>3</v>
       </c>
@@ -5812,11 +7057,23 @@
       <c r="Q78" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R78" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="R78" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S78" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T78" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U78" s="14">
+        <v>0</v>
+      </c>
+      <c r="V78" s="15">
+        <v>8.38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -5838,13 +7095,19 @@
       <c r="G79" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="9"/>
+      <c r="H79" s="4">
+        <v>-1.05</v>
+      </c>
+      <c r="I79" s="4">
+        <v>76.36</v>
+      </c>
+      <c r="J79" s="9">
+        <v>2.63</v>
+      </c>
       <c r="K79" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="L79" s="6"/>
+      <c r="L79" s="11"/>
       <c r="M79" s="4">
         <v>9</v>
       </c>
@@ -5860,11 +7123,23 @@
       <c r="Q79" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R79" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="R79" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S79" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T79" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U79" s="17">
+        <v>1</v>
+      </c>
+      <c r="V79" s="15">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -5886,13 +7161,19 @@
       <c r="G80" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="9"/>
+      <c r="H80" s="4">
+        <v>3.92</v>
+      </c>
+      <c r="I80" s="4">
+        <v>25.6</v>
+      </c>
+      <c r="J80" s="9">
+        <v>9.03</v>
+      </c>
       <c r="K80" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="L80" s="6"/>
+      <c r="L80" s="11"/>
       <c r="M80" s="4">
         <v>8</v>
       </c>
@@ -5908,11 +7189,23 @@
       <c r="Q80" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R80" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="R80" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S80" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T80" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U80" s="14">
+        <v>0</v>
+      </c>
+      <c r="V80" s="15">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -5934,13 +7227,19 @@
       <c r="G81" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="9"/>
+      <c r="H81" s="4">
+        <v>-4.63</v>
+      </c>
+      <c r="I81" s="4">
+        <v>85.1</v>
+      </c>
+      <c r="J81" s="9">
+        <v>-0.69</v>
+      </c>
       <c r="K81" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="L81" s="6"/>
+      <c r="L81" s="11"/>
       <c r="M81" s="4">
         <v>1</v>
       </c>
@@ -5950,17 +7249,29 @@
       <c r="O81" s="4">
         <v>657053</v>
       </c>
-      <c r="P81" s="11">
+      <c r="P81" s="12">
         <v>0.39</v>
       </c>
       <c r="Q81" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R81" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="R81" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S81" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T81" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U81" s="14">
+        <v>0</v>
+      </c>
+      <c r="V81" s="15">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -5982,13 +7293,19 @@
       <c r="G82" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="9"/>
+      <c r="H82" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="I82" s="4">
+        <v>31.48</v>
+      </c>
+      <c r="J82" s="9">
+        <v>3.28</v>
+      </c>
       <c r="K82" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L82" s="6"/>
+      <c r="L82" s="11"/>
       <c r="M82" s="4">
         <v>1</v>
       </c>
@@ -5998,17 +7315,29 @@
       <c r="O82" s="4">
         <v>79087134</v>
       </c>
-      <c r="P82" s="11">
+      <c r="P82" s="12">
         <v>0.45</v>
       </c>
       <c r="Q82" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R82" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="R82" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S82" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T82" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U82" s="14">
+        <v>0</v>
+      </c>
+      <c r="V82" s="15">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6030,13 +7359,19 @@
       <c r="G83" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="9"/>
+      <c r="H83" s="4">
+        <v>4.87</v>
+      </c>
+      <c r="I83" s="4">
+        <v>36.65</v>
+      </c>
+      <c r="J83" s="9">
+        <v>8.92</v>
+      </c>
       <c r="K83" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L83" s="6"/>
+      <c r="L83" s="11"/>
       <c r="M83" s="4">
         <v>18</v>
       </c>
@@ -6052,11 +7387,23 @@
       <c r="Q83" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R83" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="R83" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S83" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T83" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U83" s="14">
+        <v>0</v>
+      </c>
+      <c r="V83" s="15">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6078,13 +7425,19 @@
       <c r="G84" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="9"/>
+      <c r="H84" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="I84" s="4">
+        <v>25.86</v>
+      </c>
+      <c r="J84" s="9">
+        <v>4.15</v>
+      </c>
       <c r="K84" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L84" s="6"/>
+      <c r="L84" s="11"/>
       <c r="M84" s="4">
         <v>4</v>
       </c>
@@ -6100,11 +7453,23 @@
       <c r="Q84" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R84" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="R84" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S84" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T84" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U84" s="14">
+        <v>0</v>
+      </c>
+      <c r="V84" s="15">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6126,13 +7491,19 @@
       <c r="G85" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="9"/>
+      <c r="H85" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="I85" s="4">
+        <v>27.68</v>
+      </c>
+      <c r="J85" s="9">
+        <v>1.88</v>
+      </c>
       <c r="K85" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L85" s="6"/>
+      <c r="L85" s="11"/>
       <c r="M85" s="4">
         <v>1</v>
       </c>
@@ -6142,17 +7513,29 @@
       <c r="O85" s="4">
         <v>61611131</v>
       </c>
-      <c r="P85" s="11">
+      <c r="P85" s="12">
         <v>0.57</v>
       </c>
       <c r="Q85" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R85" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="R85" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S85" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T85" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U85" s="14">
+        <v>0</v>
+      </c>
+      <c r="V85" s="15">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6165,7 +7548,7 @@
       <c r="D86" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="6">
         <v>15.36</v>
       </c>
       <c r="F86" s="4">
@@ -6174,13 +7557,19 @@
       <c r="G86" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="9"/>
+      <c r="H86" s="4">
+        <v>-9.05</v>
+      </c>
+      <c r="I86" s="4">
+        <v>38.86</v>
+      </c>
+      <c r="J86" s="9">
+        <v>-2.36</v>
+      </c>
       <c r="K86" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L86" s="6"/>
+      <c r="L86" s="11"/>
       <c r="M86" s="4">
         <v>1</v>
       </c>
@@ -6190,17 +7579,29 @@
       <c r="O86" s="4">
         <v>37298219</v>
       </c>
-      <c r="P86" s="11">
+      <c r="P86" s="12">
         <v>1.53</v>
       </c>
-      <c r="Q86" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R86" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="Q86" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R86" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S86" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T86" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U86" s="17">
+        <v>1</v>
+      </c>
+      <c r="V86" s="15">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6222,13 +7623,19 @@
       <c r="G87" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="9"/>
+      <c r="H87" s="4">
+        <v>-0.58</v>
+      </c>
+      <c r="I87" s="4">
+        <v>40.66</v>
+      </c>
+      <c r="J87" s="9">
+        <v>2.03</v>
+      </c>
       <c r="K87" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L87" s="6"/>
+      <c r="L87" s="11"/>
       <c r="M87" s="4">
         <v>13</v>
       </c>
@@ -6238,17 +7645,29 @@
       <c r="O87" s="4">
         <v>15927689</v>
       </c>
-      <c r="P87" s="11">
+      <c r="P87" s="12">
         <v>0.4</v>
       </c>
       <c r="Q87" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R87" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="R87" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S87" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T87" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U87" s="14">
+        <v>0</v>
+      </c>
+      <c r="V87" s="15">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6270,13 +7689,19 @@
       <c r="G88" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="9"/>
+      <c r="H88" s="4">
+        <v>-0.89</v>
+      </c>
+      <c r="I88" s="4">
+        <v>57.94</v>
+      </c>
+      <c r="J88" s="9">
+        <v>0.92</v>
+      </c>
       <c r="K88" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L88" s="6"/>
+      <c r="L88" s="11"/>
       <c r="M88" s="4">
         <v>7</v>
       </c>
@@ -6286,17 +7711,29 @@
       <c r="O88" s="4">
         <v>-35766831</v>
       </c>
-      <c r="P88" s="11">
+      <c r="P88" s="12">
         <v>0.41</v>
       </c>
       <c r="Q88" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R88" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="R88" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S88" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T88" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U88" s="14">
+        <v>0</v>
+      </c>
+      <c r="V88" s="15">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6318,13 +7755,19 @@
       <c r="G89" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="9"/>
+      <c r="H89" s="4">
+        <v>-12.03</v>
+      </c>
+      <c r="I89" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="J89" s="9">
+        <v>-1.15</v>
+      </c>
       <c r="K89" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L89" s="6"/>
+      <c r="L89" s="11"/>
       <c r="M89" s="4">
         <v>16</v>
       </c>
@@ -6340,11 +7783,23 @@
       <c r="Q89" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R89" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="R89" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S89" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T89" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U89" s="14">
+        <v>0</v>
+      </c>
+      <c r="V89" s="15">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6366,13 +7821,19 @@
       <c r="G90" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="9"/>
+      <c r="H90" s="4">
+        <v>-1.74</v>
+      </c>
+      <c r="I90" s="4">
+        <v>48.7</v>
+      </c>
+      <c r="J90" s="9">
+        <v>0.64</v>
+      </c>
       <c r="K90" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L90" s="6"/>
+      <c r="L90" s="11"/>
       <c r="M90" s="4">
         <v>5</v>
       </c>
@@ -6388,8 +7849,20 @@
       <c r="Q90" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R90" s="12" t="s">
-        <v>23</v>
+      <c r="R90" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S90" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T90" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U90" s="14">
+        <v>0</v>
+      </c>
+      <c r="V90" s="15">
+        <v>5.26</v>
       </c>
     </row>
   </sheetData>

--- a/dataanalysis/alert/0703.xlsx
+++ b/dataanalysis/alert/0703.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="211">
   <si>
     <t>序号</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>最高价</t>
+  </si>
+  <si>
+    <t>AI预测</t>
+  </si>
+  <si>
+    <t>AI幅度</t>
   </si>
   <si>
     <t>乐普医疗</t>
@@ -1342,7 +1348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1381,6 +1387,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1922,8 +1934,8 @@
   <sheetPr/>
   <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:V90"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1931,7 +1943,7 @@
     <col min="14" max="15" width="11.5045045045045"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.85" spans="1:20">
+    <row r="1" ht="24.85" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1991,6 +2003,12 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -2004,7 +2022,7 @@
         <v>300003</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4">
         <v>2.27</v>
@@ -2013,7 +2031,7 @@
         <v>15.78</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4">
         <v>-1.08</v>
@@ -2025,7 +2043,7 @@
         <v>2.03</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="4">
@@ -2041,21 +2059,21 @@
         <v>-0.02</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="14">
-        <v>0</v>
-      </c>
-      <c r="V2" s="15">
+        <v>25</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="16">
+        <v>0</v>
+      </c>
+      <c r="V2" s="17">
         <v>4.49</v>
       </c>
     </row>
@@ -2070,7 +2088,7 @@
         <v>300008</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4">
         <v>-4.96</v>
@@ -2079,7 +2097,7 @@
         <v>7.09</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4">
         <v>-2.96</v>
@@ -2091,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="4">
@@ -2107,21 +2125,21 @@
         <v>-1.86</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="14">
-        <v>0</v>
-      </c>
-      <c r="V3" s="15">
+        <v>25</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="16">
+        <v>0</v>
+      </c>
+      <c r="V3" s="17">
         <v>3.1</v>
       </c>
     </row>
@@ -2136,7 +2154,7 @@
         <v>300016</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4">
         <v>1.24</v>
@@ -2145,7 +2163,7 @@
         <v>9.83</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4">
         <v>1.83</v>
@@ -2157,7 +2175,7 @@
         <v>11.6</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="4">
@@ -2173,21 +2191,21 @@
         <v>0.58</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="14">
-        <v>0</v>
-      </c>
-      <c r="V4" s="15">
+        <v>25</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="16">
+        <v>0</v>
+      </c>
+      <c r="V4" s="17">
         <v>3.59</v>
       </c>
     </row>
@@ -2202,7 +2220,7 @@
         <v>300030</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4">
         <v>-0.89</v>
@@ -2211,7 +2229,7 @@
         <v>7.8</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4">
         <v>2.44</v>
@@ -2223,7 +2241,7 @@
         <v>9.74</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="4">
@@ -2239,21 +2257,21 @@
         <v>0.2</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="14">
-        <v>0</v>
-      </c>
-      <c r="V5" s="15">
+        <v>25</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0</v>
+      </c>
+      <c r="V5" s="17">
         <v>3.03</v>
       </c>
     </row>
@@ -2268,7 +2286,7 @@
         <v>300046</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4">
         <v>-1.42</v>
@@ -2277,7 +2295,7 @@
         <v>41.8</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4">
         <v>-2.56</v>
@@ -2289,7 +2307,7 @@
         <v>1.46</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="4">
@@ -2305,21 +2323,21 @@
         <v>-1.84</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="14">
-        <v>0</v>
-      </c>
-      <c r="V6" s="15">
+        <v>25</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="16">
+        <v>0</v>
+      </c>
+      <c r="V6" s="17">
         <v>0.53</v>
       </c>
     </row>
@@ -2334,7 +2352,7 @@
         <v>300092</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4">
         <v>-1.29</v>
@@ -2343,7 +2361,7 @@
         <v>13.78</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="4">
         <v>-1.67</v>
@@ -2355,7 +2373,7 @@
         <v>0.58</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="4">
@@ -2371,21 +2389,21 @@
         <v>-1.06</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="17">
+        <v>25</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="19">
         <v>1</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="17">
         <v>9.55</v>
       </c>
     </row>
@@ -2400,7 +2418,7 @@
         <v>300095</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4">
         <v>-4.74</v>
@@ -2409,7 +2427,7 @@
         <v>9.84</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4">
         <v>-2.64</v>
@@ -2421,7 +2439,7 @@
         <v>0.2</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="4">
@@ -2437,21 +2455,21 @@
         <v>-1.63</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="14">
-        <v>0</v>
-      </c>
-      <c r="V8" s="15">
+        <v>25</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="17">
         <v>3.87</v>
       </c>
     </row>
@@ -2466,7 +2484,7 @@
         <v>300121</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="4">
         <v>-2.26</v>
@@ -2475,7 +2493,7 @@
         <v>14.69</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H9" s="4">
         <v>-1.29</v>
@@ -2487,7 +2505,7 @@
         <v>1.43</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="4">
@@ -2503,21 +2521,21 @@
         <v>-0.48</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U9" s="14">
-        <v>0</v>
-      </c>
-      <c r="V9" s="15">
+        <v>25</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="17">
         <v>3.74</v>
       </c>
     </row>
@@ -2532,7 +2550,7 @@
         <v>300130</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4">
         <v>0.38</v>
@@ -2541,7 +2559,7 @@
         <v>32.01</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="4">
         <v>3.5</v>
@@ -2553,7 +2571,7 @@
         <v>7.03</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="4">
@@ -2569,21 +2587,21 @@
         <v>0.14</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="14">
-        <v>0</v>
-      </c>
-      <c r="V10" s="15">
+        <v>25</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="16">
+        <v>0</v>
+      </c>
+      <c r="V10" s="17">
         <v>1.93</v>
       </c>
     </row>
@@ -2598,7 +2616,7 @@
         <v>300149</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4">
         <v>4.78</v>
@@ -2607,7 +2625,7 @@
         <v>11.4</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H11" s="4">
         <v>-2.02</v>
@@ -2619,7 +2637,7 @@
         <v>2.28</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="4">
@@ -2635,21 +2653,21 @@
         <v>0.62</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U11" s="14">
-        <v>0</v>
-      </c>
-      <c r="V11" s="15">
+        <v>25</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0</v>
+      </c>
+      <c r="V11" s="17">
         <v>4.98</v>
       </c>
     </row>
@@ -2664,7 +2682,7 @@
         <v>300160</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="4">
         <v>2.71</v>
@@ -2673,7 +2691,7 @@
         <v>6.82</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12" s="4">
         <v>-6.45</v>
@@ -2685,7 +2703,7 @@
         <v>2.35</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="4">
@@ -2701,21 +2719,21 @@
         <v>-0.79</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" s="14">
-        <v>0</v>
-      </c>
-      <c r="V12" s="15">
+        <v>25</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="16">
+        <v>0</v>
+      </c>
+      <c r="V12" s="17">
         <v>1.28</v>
       </c>
     </row>
@@ -2730,7 +2748,7 @@
         <v>300180</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" s="4">
         <v>-0.79</v>
@@ -2739,7 +2757,7 @@
         <v>8.75</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" s="4">
         <v>1.83</v>
@@ -2751,7 +2769,7 @@
         <v>5.03</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="4">
@@ -2767,21 +2785,21 @@
         <v>-0.02</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U13" s="14">
-        <v>0</v>
-      </c>
-      <c r="V13" s="15">
+        <v>25</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0</v>
+      </c>
+      <c r="V13" s="17">
         <v>1.77</v>
       </c>
     </row>
@@ -2796,7 +2814,7 @@
         <v>300196</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4">
         <v>0.72</v>
@@ -2805,7 +2823,7 @@
         <v>13.9</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H14" s="4">
         <v>0.14</v>
@@ -2817,7 +2835,7 @@
         <v>8.71</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="4">
@@ -2833,21 +2851,21 @@
         <v>0.7</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U14" s="14">
-        <v>0</v>
-      </c>
-      <c r="V14" s="15">
+        <v>25</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="16">
+        <v>0</v>
+      </c>
+      <c r="V14" s="17">
         <v>3.34</v>
       </c>
     </row>
@@ -2862,7 +2880,7 @@
         <v>300199</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4">
         <v>3.95</v>
@@ -2871,7 +2889,7 @@
         <v>18.18</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="4">
         <v>1.71</v>
@@ -2883,7 +2901,7 @@
         <v>7.43</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="4">
@@ -2899,21 +2917,21 @@
         <v>-0.56</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U15" s="14">
-        <v>0</v>
-      </c>
-      <c r="V15" s="15">
+        <v>25</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="16">
+        <v>0</v>
+      </c>
+      <c r="V15" s="17">
         <v>0.35</v>
       </c>
     </row>
@@ -2928,7 +2946,7 @@
         <v>300204</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4">
         <v>9.33</v>
@@ -2937,7 +2955,7 @@
         <v>44.64</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H16" s="4">
         <v>0.54</v>
@@ -2949,7 +2967,7 @@
         <v>2.28</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="4">
@@ -2965,21 +2983,21 @@
         <v>0.21</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U16" s="14">
-        <v>0</v>
-      </c>
-      <c r="V16" s="15">
+        <v>25</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16" s="16">
+        <v>0</v>
+      </c>
+      <c r="V16" s="17">
         <v>11.72</v>
       </c>
     </row>
@@ -2994,7 +3012,7 @@
         <v>300269</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" s="4">
         <v>-3.67</v>
@@ -3003,7 +3021,7 @@
         <v>5.78</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H17" s="4">
         <v>-4.5</v>
@@ -3015,7 +3033,7 @@
         <v>6.92</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="4">
@@ -3031,21 +3049,21 @@
         <v>-0.27</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U17" s="14">
-        <v>0</v>
-      </c>
-      <c r="V17" s="15">
+        <v>25</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="16">
+        <v>0</v>
+      </c>
+      <c r="V17" s="17">
         <v>1.18</v>
       </c>
     </row>
@@ -3060,7 +3078,7 @@
         <v>300340</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" s="4">
         <v>6.69</v>
@@ -3069,7 +3087,7 @@
         <v>20.1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H18" s="4">
         <v>-8.76</v>
@@ -3081,7 +3099,7 @@
         <v>-2.24</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="4">
@@ -3097,21 +3115,21 @@
         <v>0.95</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" s="14">
-        <v>0</v>
-      </c>
-      <c r="V18" s="15">
+        <v>25</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="16">
+        <v>0</v>
+      </c>
+      <c r="V18" s="17">
         <v>3.29</v>
       </c>
     </row>
@@ -3126,7 +3144,7 @@
         <v>300368</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4">
         <v>8.13</v>
@@ -3135,7 +3153,7 @@
         <v>11.7</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H19" s="4">
         <v>-0.94</v>
@@ -3147,7 +3165,7 @@
         <v>8.29</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="4">
@@ -3163,21 +3181,21 @@
         <v>0.29</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U19" s="14">
-        <v>0</v>
-      </c>
-      <c r="V19" s="15">
+        <v>25</v>
+      </c>
+      <c r="R19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="16">
+        <v>0</v>
+      </c>
+      <c r="V19" s="17">
         <v>3.35</v>
       </c>
     </row>
@@ -3192,7 +3210,7 @@
         <v>300386</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4">
         <v>-0.1</v>
@@ -3201,7 +3219,7 @@
         <v>20.95</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H20" s="4">
         <v>3.25</v>
@@ -3213,7 +3231,7 @@
         <v>4.68</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="4">
@@ -3229,21 +3247,21 @@
         <v>-0.03</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U20" s="14">
-        <v>0</v>
-      </c>
-      <c r="V20" s="15">
+        <v>25</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20" s="16">
+        <v>0</v>
+      </c>
+      <c r="V20" s="17">
         <v>2.38</v>
       </c>
     </row>
@@ -3258,7 +3276,7 @@
         <v>300405</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4">
         <v>-2.86</v>
@@ -3267,7 +3285,7 @@
         <v>5.78</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H21" s="4">
         <v>-0.87</v>
@@ -3279,7 +3297,7 @@
         <v>6.92</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="4">
@@ -3295,21 +3313,21 @@
         <v>-0.78</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U21" s="14">
-        <v>0</v>
-      </c>
-      <c r="V21" s="15">
+        <v>25</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="16">
+        <v>0</v>
+      </c>
+      <c r="V21" s="17">
         <v>1.99</v>
       </c>
     </row>
@@ -3324,7 +3342,7 @@
         <v>300410</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" s="4">
         <v>8.38</v>
@@ -3333,7 +3351,7 @@
         <v>7.89</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H22" s="4">
         <v>-5.2</v>
@@ -3345,7 +3363,7 @@
         <v>1.9</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="4">
@@ -3361,21 +3379,21 @@
         <v>1.19</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U22" s="14">
-        <v>0</v>
-      </c>
-      <c r="V22" s="15">
+        <v>25</v>
+      </c>
+      <c r="R22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U22" s="16">
+        <v>0</v>
+      </c>
+      <c r="V22" s="17">
         <v>4.03</v>
       </c>
     </row>
@@ -3390,7 +3408,7 @@
         <v>300429</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="4">
         <v>-1.72</v>
@@ -3399,7 +3417,7 @@
         <v>14.3</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H23" s="4">
         <v>-2.59</v>
@@ -3411,7 +3429,7 @@
         <v>0.07</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="4">
@@ -3427,21 +3445,21 @@
         <v>-1.28</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U23" s="14">
-        <v>0</v>
-      </c>
-      <c r="V23" s="15">
+        <v>25</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23" s="16">
+        <v>0</v>
+      </c>
+      <c r="V23" s="17">
         <v>2.37</v>
       </c>
     </row>
@@ -3456,7 +3474,7 @@
         <v>300436</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E24" s="6">
         <v>20</v>
@@ -3465,7 +3483,7 @@
         <v>42.78</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="4">
         <v>20.01</v>
@@ -3477,7 +3495,7 @@
         <v>20.01</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L24" s="11"/>
       <c r="M24" s="4">
@@ -3492,22 +3510,22 @@
       <c r="P24" s="12">
         <v>2.45</v>
       </c>
-      <c r="Q24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U24" s="17">
+      <c r="Q24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="19">
         <v>1</v>
       </c>
-      <c r="V24" s="15">
+      <c r="V24" s="17">
         <v>12.45</v>
       </c>
     </row>
@@ -3522,7 +3540,7 @@
         <v>300452</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E25" s="4">
         <v>8.26</v>
@@ -3531,7 +3549,7 @@
         <v>15.2</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H25" s="4">
         <v>-5.33</v>
@@ -3543,7 +3561,7 @@
         <v>-2.63</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="4">
@@ -3559,21 +3577,21 @@
         <v>2.02</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U25" s="17">
+        <v>25</v>
+      </c>
+      <c r="R25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" s="19">
         <v>1</v>
       </c>
-      <c r="V25" s="15">
+      <c r="V25" s="17">
         <v>-0.38</v>
       </c>
     </row>
@@ -3588,7 +3606,7 @@
         <v>300468</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26" s="4">
         <v>0.61</v>
@@ -3597,7 +3615,7 @@
         <v>44.37</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H26" s="4">
         <v>6.4</v>
@@ -3609,7 +3627,7 @@
         <v>8.05</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="4">
@@ -3625,21 +3643,21 @@
         <v>-0.66</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U26" s="14">
-        <v>0</v>
-      </c>
-      <c r="V26" s="15">
+        <v>25</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="V26" s="17">
         <v>1.81</v>
       </c>
     </row>
@@ -3654,7 +3672,7 @@
         <v>300485</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E27" s="6">
         <v>10.45</v>
@@ -3663,7 +3681,7 @@
         <v>15.12</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H27" s="4">
         <v>-2.84</v>
@@ -3675,7 +3693,7 @@
         <v>0.79</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="4">
@@ -3691,21 +3709,21 @@
         <v>0.3</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U27" s="14">
-        <v>0</v>
-      </c>
-      <c r="V27" s="15">
+        <v>25</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27" s="16">
+        <v>0</v>
+      </c>
+      <c r="V27" s="17">
         <v>7.37</v>
       </c>
     </row>
@@ -3720,7 +3738,7 @@
         <v>300515</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E28" s="4">
         <v>-4.89</v>
@@ -3729,7 +3747,7 @@
         <v>25.68</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H28" s="4">
         <v>2.65</v>
@@ -3741,7 +3759,7 @@
         <v>5.14</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="4">
@@ -3757,21 +3775,21 @@
         <v>-0.45</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U28" s="14">
-        <v>0</v>
-      </c>
-      <c r="V28" s="15">
+        <v>25</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U28" s="16">
+        <v>0</v>
+      </c>
+      <c r="V28" s="17">
         <v>3.02</v>
       </c>
     </row>
@@ -3786,7 +3804,7 @@
         <v>300527</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E29" s="4">
         <v>-10.48</v>
@@ -3795,7 +3813,7 @@
         <v>11.1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H29" s="4">
         <v>-5.23</v>
@@ -3807,7 +3825,7 @@
         <v>0.99</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="4">
@@ -3823,21 +3841,21 @@
         <v>-1.41</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U29" s="14">
-        <v>0</v>
-      </c>
-      <c r="V29" s="15">
+        <v>25</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29" s="16">
+        <v>0</v>
+      </c>
+      <c r="V29" s="17">
         <v>-0.26</v>
       </c>
     </row>
@@ -3852,7 +3870,7 @@
         <v>300531</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E30" s="4">
         <v>0.34</v>
@@ -3861,7 +3879,7 @@
         <v>20.86</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H30" s="4">
         <v>0.29</v>
@@ -3873,7 +3891,7 @@
         <v>2.83</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="4">
@@ -3889,21 +3907,21 @@
         <v>0.26</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U30" s="14">
-        <v>0</v>
-      </c>
-      <c r="V30" s="15">
+        <v>25</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U30" s="16">
+        <v>0</v>
+      </c>
+      <c r="V30" s="17">
         <v>1.99</v>
       </c>
     </row>
@@ -3918,7 +3936,7 @@
         <v>300533</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E31" s="4">
         <v>-1.48</v>
@@ -3927,7 +3945,7 @@
         <v>32.56</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H31" s="4">
         <v>6.36</v>
@@ -3939,7 +3957,7 @@
         <v>13.3</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="4">
@@ -3955,21 +3973,21 @@
         <v>-0.81</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T31" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U31" s="14">
-        <v>0</v>
-      </c>
-      <c r="V31" s="15">
+        <v>25</v>
+      </c>
+      <c r="R31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" s="16">
+        <v>0</v>
+      </c>
+      <c r="V31" s="17">
         <v>1.57</v>
       </c>
     </row>
@@ -3984,7 +4002,7 @@
         <v>300537</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E32" s="4">
         <v>-11.41</v>
@@ -3993,7 +4011,7 @@
         <v>25.38</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H32" s="4">
         <v>1.3</v>
@@ -4005,7 +4023,7 @@
         <v>2.88</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="4">
@@ -4021,21 +4039,21 @@
         <v>-3.32</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U32" s="14">
-        <v>0</v>
-      </c>
-      <c r="V32" s="15">
+        <v>25</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U32" s="16">
+        <v>0</v>
+      </c>
+      <c r="V32" s="17">
         <v>-0.18</v>
       </c>
     </row>
@@ -4050,7 +4068,7 @@
         <v>300554</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E33" s="4">
         <v>-5.81</v>
@@ -4059,7 +4077,7 @@
         <v>26.08</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H33" s="4">
         <v>-6.17</v>
@@ -4071,7 +4089,7 @@
         <v>-0.04</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="4">
@@ -4087,21 +4105,21 @@
         <v>-1.7</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U33" s="14">
-        <v>0</v>
-      </c>
-      <c r="V33" s="15">
+        <v>25</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U33" s="16">
+        <v>0</v>
+      </c>
+      <c r="V33" s="17">
         <v>8.08</v>
       </c>
     </row>
@@ -4116,7 +4134,7 @@
         <v>300568</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E34" s="4">
         <v>2.44</v>
@@ -4125,7 +4143,7 @@
         <v>12.6</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H34" s="4">
         <v>-3.97</v>
@@ -4137,7 +4155,7 @@
         <v>-0.24</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="4">
@@ -4153,21 +4171,21 @@
         <v>0.64</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U34" s="17">
+        <v>25</v>
+      </c>
+      <c r="R34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U34" s="19">
         <v>1</v>
       </c>
-      <c r="V34" s="15">
+      <c r="V34" s="17">
         <v>8.25</v>
       </c>
     </row>
@@ -4182,7 +4200,7 @@
         <v>300581</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4">
         <v>1.43</v>
@@ -4191,7 +4209,7 @@
         <v>19.81</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H35" s="4">
         <v>6.97</v>
@@ -4203,7 +4221,7 @@
         <v>7.93</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="4">
@@ -4219,21 +4237,21 @@
         <v>-1.07</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T35" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U35" s="14">
-        <v>0</v>
-      </c>
-      <c r="V35" s="15">
+        <v>25</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U35" s="16">
+        <v>0</v>
+      </c>
+      <c r="V35" s="17">
         <v>1.51</v>
       </c>
     </row>
@@ -4248,7 +4266,7 @@
         <v>300584</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E36" s="4">
         <v>9.74</v>
@@ -4257,7 +4275,7 @@
         <v>40.56</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H36" s="4">
         <v>-3.94</v>
@@ -4269,7 +4287,7 @@
         <v>0.76</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="4">
@@ -4285,19 +4303,19 @@
         <v>1.54</v>
       </c>
       <c r="Q36" s="11"/>
-      <c r="R36" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S36" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T36" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U36" s="17">
+      <c r="R36" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U36" s="19">
         <v>1</v>
       </c>
-      <c r="V36" s="15">
+      <c r="V36" s="17">
         <v>9.32</v>
       </c>
     </row>
@@ -4312,7 +4330,7 @@
         <v>300589</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E37" s="4">
         <v>-5.54</v>
@@ -4321,7 +4339,7 @@
         <v>15</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H37" s="4">
         <v>-3.07</v>
@@ -4333,7 +4351,7 @@
         <v>-1</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L37" s="11"/>
       <c r="M37" s="4">
@@ -4349,21 +4367,21 @@
         <v>-1.24</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U37" s="14">
-        <v>0</v>
-      </c>
-      <c r="V37" s="15">
+        <v>25</v>
+      </c>
+      <c r="R37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U37" s="16">
+        <v>0</v>
+      </c>
+      <c r="V37" s="17">
         <v>0.29</v>
       </c>
     </row>
@@ -4378,7 +4396,7 @@
         <v>300591</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E38" s="4">
         <v>8.54</v>
@@ -4387,7 +4405,7 @@
         <v>11.57</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H38" s="4">
         <v>0.17</v>
@@ -4399,7 +4417,7 @@
         <v>1.99</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L38" s="11"/>
       <c r="M38" s="4">
@@ -4415,21 +4433,21 @@
         <v>1.58</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U38" s="14">
-        <v>0</v>
-      </c>
-      <c r="V38" s="15">
+        <v>25</v>
+      </c>
+      <c r="R38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U38" s="16">
+        <v>0</v>
+      </c>
+      <c r="V38" s="17">
         <v>-0.79</v>
       </c>
     </row>
@@ -4444,7 +4462,7 @@
         <v>300600</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E39" s="4">
         <v>-3.74</v>
@@ -4453,7 +4471,7 @@
         <v>14.16</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H39" s="4">
         <v>0.78</v>
@@ -4465,7 +4483,7 @@
         <v>4.1</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="4">
@@ -4481,21 +4499,21 @@
         <v>0.1</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R39" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S39" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T39" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U39" s="14">
-        <v>0</v>
-      </c>
-      <c r="V39" s="15">
+        <v>25</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" s="16">
+        <v>0</v>
+      </c>
+      <c r="V39" s="17">
         <v>3.58</v>
       </c>
     </row>
@@ -4510,7 +4528,7 @@
         <v>300619</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E40" s="4">
         <v>4.08</v>
@@ -4519,7 +4537,7 @@
         <v>28.82</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H40" s="4">
         <v>-9.85</v>
@@ -4531,7 +4549,7 @@
         <v>-1.35</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="4">
@@ -4547,21 +4565,21 @@
         <v>0.31</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U40" s="14">
-        <v>0</v>
-      </c>
-      <c r="V40" s="15">
+        <v>25</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T40" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U40" s="16">
+        <v>0</v>
+      </c>
+      <c r="V40" s="17">
         <v>3.03</v>
       </c>
     </row>
@@ -4576,7 +4594,7 @@
         <v>300645</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E41" s="4">
         <v>9.96</v>
@@ -4585,7 +4603,7 @@
         <v>20.65</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H41" s="4">
         <v>8.57</v>
@@ -4597,7 +4615,7 @@
         <v>12.93</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="4">
@@ -4613,21 +4631,21 @@
         <v>1.31</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T41" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U41" s="17">
+        <v>25</v>
+      </c>
+      <c r="R41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T41" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U41" s="19">
         <v>1</v>
       </c>
-      <c r="V41" s="15">
+      <c r="V41" s="17">
         <v>6.56</v>
       </c>
     </row>
@@ -4642,7 +4660,7 @@
         <v>300649</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E42" s="4">
         <v>6.03</v>
@@ -4651,7 +4669,7 @@
         <v>17.4</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H42" s="4">
         <v>20</v>
@@ -4663,7 +4681,7 @@
         <v>20</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="4">
@@ -4679,21 +4697,21 @@
         <v>1.17</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T42" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U42" s="14">
-        <v>0</v>
-      </c>
-      <c r="V42" s="15">
+        <v>25</v>
+      </c>
+      <c r="R42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T42" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U42" s="16">
+        <v>0</v>
+      </c>
+      <c r="V42" s="17">
         <v>1.09</v>
       </c>
     </row>
@@ -4708,7 +4726,7 @@
         <v>300665</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E43" s="4">
         <v>-12.3</v>
@@ -4717,7 +4735,7 @@
         <v>9.2</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H43" s="4">
         <v>-3.59</v>
@@ -4729,7 +4747,7 @@
         <v>-1.85</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L43" s="11"/>
       <c r="M43" s="4">
@@ -4745,21 +4763,21 @@
         <v>-5.25</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T43" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U43" s="14">
-        <v>0</v>
-      </c>
-      <c r="V43" s="15">
+        <v>25</v>
+      </c>
+      <c r="R43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U43" s="16">
+        <v>0</v>
+      </c>
+      <c r="V43" s="17">
         <v>7.39</v>
       </c>
     </row>
@@ -4774,7 +4792,7 @@
         <v>300670</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E44" s="4">
         <v>4.45</v>
@@ -4783,7 +4801,7 @@
         <v>8.21</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H44" s="4">
         <v>-6.09</v>
@@ -4795,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="4">
@@ -4811,21 +4829,21 @@
         <v>-3.03</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R44" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T44" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U44" s="14">
-        <v>0</v>
-      </c>
-      <c r="V44" s="15">
+        <v>25</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U44" s="16">
+        <v>0</v>
+      </c>
+      <c r="V44" s="17">
         <v>5.4</v>
       </c>
     </row>
@@ -4840,7 +4858,7 @@
         <v>300682</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E45" s="4">
         <v>0.05</v>
@@ -4849,7 +4867,7 @@
         <v>21.35</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H45" s="4">
         <v>2.81</v>
@@ -4861,7 +4879,7 @@
         <v>7.17</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="4">
@@ -4877,21 +4895,21 @@
         <v>0.08</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R45" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T45" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U45" s="14">
-        <v>0</v>
-      </c>
-      <c r="V45" s="15">
+        <v>25</v>
+      </c>
+      <c r="R45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T45" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U45" s="16">
+        <v>0</v>
+      </c>
+      <c r="V45" s="17">
         <v>2.32</v>
       </c>
     </row>
@@ -4906,7 +4924,7 @@
         <v>300697</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E46" s="4">
         <v>-2.61</v>
@@ -4915,7 +4933,7 @@
         <v>16.03</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H46" s="4">
         <v>-8.48</v>
@@ -4927,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="4">
@@ -4943,21 +4961,21 @@
         <v>0.14</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U46" s="14">
-        <v>0</v>
-      </c>
-      <c r="V46" s="15">
+        <v>25</v>
+      </c>
+      <c r="R46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U46" s="16">
+        <v>0</v>
+      </c>
+      <c r="V46" s="17">
         <v>1.88</v>
       </c>
     </row>
@@ -4972,7 +4990,7 @@
         <v>300722</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E47" s="4">
         <v>2.07</v>
@@ -4981,7 +4999,7 @@
         <v>36.04</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H47" s="4">
         <v>-2.33</v>
@@ -4993,7 +5011,7 @@
         <v>-0.58</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="4">
@@ -5009,21 +5027,21 @@
         <v>0.08</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U47" s="14">
-        <v>0</v>
-      </c>
-      <c r="V47" s="15">
+        <v>25</v>
+      </c>
+      <c r="R47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U47" s="16">
+        <v>0</v>
+      </c>
+      <c r="V47" s="17">
         <v>2.96</v>
       </c>
     </row>
@@ -5038,7 +5056,7 @@
         <v>300753</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E48" s="4">
         <v>-2.51</v>
@@ -5047,7 +5065,7 @@
         <v>31.41</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H48" s="4">
         <v>3.98</v>
@@ -5059,7 +5077,7 @@
         <v>14.26</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L48" s="11"/>
       <c r="M48" s="4">
@@ -5075,21 +5093,21 @@
         <v>-0.48</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S48" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T48" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U48" s="14">
-        <v>0</v>
-      </c>
-      <c r="V48" s="15">
+        <v>25</v>
+      </c>
+      <c r="R48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T48" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U48" s="16">
+        <v>0</v>
+      </c>
+      <c r="V48" s="17">
         <v>2.59</v>
       </c>
     </row>
@@ -5104,7 +5122,7 @@
         <v>300767</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E49" s="4">
         <v>0.75</v>
@@ -5113,7 +5131,7 @@
         <v>13.48</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H49" s="4">
         <v>-2.37</v>
@@ -5125,7 +5143,7 @@
         <v>2.67</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L49" s="11"/>
       <c r="M49" s="4">
@@ -5141,21 +5159,21 @@
         <v>0.15</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T49" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U49" s="14">
-        <v>0</v>
-      </c>
-      <c r="V49" s="15">
+        <v>25</v>
+      </c>
+      <c r="R49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U49" s="16">
+        <v>0</v>
+      </c>
+      <c r="V49" s="17">
         <v>3.17</v>
       </c>
     </row>
@@ -5170,7 +5188,7 @@
         <v>300773</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E50" s="7">
         <v>0</v>
@@ -5179,7 +5197,7 @@
         <v>28.87</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H50" s="4">
         <v>3.12</v>
@@ -5191,7 +5209,7 @@
         <v>5.26</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L50" s="11"/>
       <c r="M50" s="4">
@@ -5207,21 +5225,21 @@
         <v>-0.34</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T50" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U50" s="17">
+        <v>25</v>
+      </c>
+      <c r="R50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T50" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U50" s="19">
         <v>1</v>
       </c>
-      <c r="V50" s="15">
+      <c r="V50" s="17">
         <v>4.74</v>
       </c>
     </row>
@@ -5236,7 +5254,7 @@
         <v>300803</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E51" s="4">
         <v>-0.8</v>
@@ -5245,7 +5263,7 @@
         <v>76.47</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H51" s="4">
         <v>1.66</v>
@@ -5257,7 +5275,7 @@
         <v>6.77</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L51" s="11"/>
       <c r="M51" s="4">
@@ -5273,21 +5291,21 @@
         <v>-0.02</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T51" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U51" s="14">
-        <v>0</v>
-      </c>
-      <c r="V51" s="15">
+        <v>25</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T51" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U51" s="16">
+        <v>0</v>
+      </c>
+      <c r="V51" s="17">
         <v>1.31</v>
       </c>
     </row>
@@ -5302,7 +5320,7 @@
         <v>300810</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E52" s="4">
         <v>-9.09</v>
@@ -5311,7 +5329,7 @@
         <v>50</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H52" s="4">
         <v>-8.16</v>
@@ -5323,7 +5341,7 @@
         <v>-2.36</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L52" s="11"/>
       <c r="M52" s="4">
@@ -5339,21 +5357,21 @@
         <v>-0.09</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T52" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U52" s="14">
-        <v>0</v>
-      </c>
-      <c r="V52" s="15">
+        <v>25</v>
+      </c>
+      <c r="R52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U52" s="16">
+        <v>0</v>
+      </c>
+      <c r="V52" s="17">
         <v>1.75</v>
       </c>
     </row>
@@ -5368,7 +5386,7 @@
         <v>300872</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E53" s="4">
         <v>-0.34</v>
@@ -5377,7 +5395,7 @@
         <v>20.7</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H53" s="4">
         <v>10.19</v>
@@ -5389,7 +5407,7 @@
         <v>16.47</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L53" s="11"/>
       <c r="M53" s="4">
@@ -5405,21 +5423,21 @@
         <v>-0.14</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S53" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T53" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U53" s="14">
-        <v>0</v>
-      </c>
-      <c r="V53" s="15">
+        <v>25</v>
+      </c>
+      <c r="R53" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S53" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T53" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U53" s="16">
+        <v>0</v>
+      </c>
+      <c r="V53" s="17">
         <v>3.84</v>
       </c>
     </row>
@@ -5434,7 +5452,7 @@
         <v>300875</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E54" s="4">
         <v>-2.54</v>
@@ -5443,7 +5461,7 @@
         <v>43.66</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H54" s="4">
         <v>4.58</v>
@@ -5455,7 +5473,7 @@
         <v>5.31</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L54" s="11"/>
       <c r="M54" s="4">
@@ -5471,21 +5489,21 @@
         <v>-0.35</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R54" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S54" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T54" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U54" s="14">
-        <v>0</v>
-      </c>
-      <c r="V54" s="15">
+        <v>25</v>
+      </c>
+      <c r="R54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T54" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U54" s="16">
+        <v>0</v>
+      </c>
+      <c r="V54" s="17">
         <v>0.69</v>
       </c>
     </row>
@@ -5500,7 +5518,7 @@
         <v>300903</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E55" s="4">
         <v>4.77</v>
@@ -5509,7 +5527,7 @@
         <v>10.77</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H55" s="4">
         <v>-0.37</v>
@@ -5521,7 +5539,7 @@
         <v>2.88</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L55" s="11"/>
       <c r="M55" s="4">
@@ -5537,21 +5555,21 @@
         <v>0.65</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R55" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S55" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T55" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U55" s="14">
-        <v>0</v>
-      </c>
-      <c r="V55" s="15">
+        <v>25</v>
+      </c>
+      <c r="R55" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T55" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U55" s="16">
+        <v>0</v>
+      </c>
+      <c r="V55" s="17">
         <v>9.1</v>
       </c>
     </row>
@@ -5566,7 +5584,7 @@
         <v>300965</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E56" s="4">
         <v>-2.97</v>
@@ -5575,7 +5593,7 @@
         <v>57.15</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H56" s="4">
         <v>2.57</v>
@@ -5587,7 +5605,7 @@
         <v>3.22</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L56" s="11"/>
       <c r="M56" s="4">
@@ -5603,21 +5621,21 @@
         <v>-0.52</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R56" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T56" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U56" s="14">
-        <v>0</v>
-      </c>
-      <c r="V56" s="15">
+        <v>25</v>
+      </c>
+      <c r="R56" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T56" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U56" s="16">
+        <v>0</v>
+      </c>
+      <c r="V56" s="17">
         <v>0.61</v>
       </c>
     </row>
@@ -5632,7 +5650,7 @@
         <v>300971</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E57" s="4">
         <v>-4.65</v>
@@ -5641,7 +5659,7 @@
         <v>23.36</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H57" s="4">
         <v>4.58</v>
@@ -5653,7 +5671,7 @@
         <v>6.38</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L57" s="11"/>
       <c r="M57" s="4">
@@ -5669,21 +5687,21 @@
         <v>0.37</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R57" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S57" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="T57" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U57" s="14">
-        <v>0</v>
-      </c>
-      <c r="V57" s="15">
+        <v>25</v>
+      </c>
+      <c r="R57" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S57" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T57" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U57" s="16">
+        <v>0</v>
+      </c>
+      <c r="V57" s="17">
         <v>3.44</v>
       </c>
     </row>
@@ -5698,7 +5716,7 @@
         <v>300991</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E58" s="4">
         <v>6.29</v>
@@ -5707,7 +5725,7 @@
         <v>31.75</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H58" s="4">
         <v>-6.27</v>
@@ -5719,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L58" s="11"/>
       <c r="M58" s="4">
@@ -5735,21 +5753,21 @@
         <v>0.49</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U58" s="17">
+        <v>25</v>
+      </c>
+      <c r="R58" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S58" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T58" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U58" s="19">
         <v>1</v>
       </c>
-      <c r="V58" s="15">
+      <c r="V58" s="17">
         <v>11.05</v>
       </c>
     </row>
@@ -5764,7 +5782,7 @@
         <v>300993</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E59" s="4">
         <v>5.97</v>
@@ -5773,7 +5791,7 @@
         <v>17.21</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H59" s="4">
         <v>-9.06</v>
@@ -5785,7 +5803,7 @@
         <v>3.54</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L59" s="11"/>
       <c r="M59" s="4">
@@ -5800,22 +5818,22 @@
       <c r="P59" s="4">
         <v>-0.34</v>
       </c>
-      <c r="Q59" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="R59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U59" s="14">
-        <v>0</v>
-      </c>
-      <c r="V59" s="15">
+      <c r="Q59" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R59" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S59" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T59" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U59" s="16">
+        <v>0</v>
+      </c>
+      <c r="V59" s="17">
         <v>13.68</v>
       </c>
     </row>
@@ -5830,7 +5848,7 @@
         <v>301007</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E60" s="4">
         <v>1.94</v>
@@ -5839,7 +5857,7 @@
         <v>29.9</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H60" s="4">
         <v>4.55</v>
@@ -5851,7 +5869,7 @@
         <v>6.59</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L60" s="11"/>
       <c r="M60" s="4">
@@ -5867,21 +5885,21 @@
         <v>0.38</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R60" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S60" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="T60" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U60" s="14">
-        <v>0</v>
-      </c>
-      <c r="V60" s="15">
+        <v>25</v>
+      </c>
+      <c r="R60" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S60" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T60" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U60" s="16">
+        <v>0</v>
+      </c>
+      <c r="V60" s="17">
         <v>0.87</v>
       </c>
     </row>
@@ -5896,7 +5914,7 @@
         <v>301024</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E61" s="4">
         <v>-1.02</v>
@@ -5905,7 +5923,7 @@
         <v>48.42</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H61" s="4">
         <v>19.99</v>
@@ -5917,7 +5935,7 @@
         <v>19.99</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L61" s="11"/>
       <c r="M61" s="4">
@@ -5933,21 +5951,21 @@
         <v>-0.16</v>
       </c>
       <c r="Q61" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T61" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U61" s="14">
-        <v>0</v>
-      </c>
-      <c r="V61" s="15">
+        <v>25</v>
+      </c>
+      <c r="R61" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T61" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U61" s="16">
+        <v>0</v>
+      </c>
+      <c r="V61" s="17">
         <v>1.96</v>
       </c>
     </row>
@@ -5962,7 +5980,7 @@
         <v>301125</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E62" s="4">
         <v>-4.23</v>
@@ -5971,7 +5989,7 @@
         <v>15.86</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H62" s="4">
         <v>-2.46</v>
@@ -5983,7 +6001,7 @@
         <v>5.04</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L62" s="11"/>
       <c r="M62" s="4">
@@ -5999,21 +6017,21 @@
         <v>-0.58</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R62" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S62" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T62" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U62" s="14">
-        <v>0</v>
-      </c>
-      <c r="V62" s="15">
+        <v>25</v>
+      </c>
+      <c r="R62" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S62" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T62" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U62" s="16">
+        <v>0</v>
+      </c>
+      <c r="V62" s="17">
         <v>-0.42</v>
       </c>
     </row>
@@ -6028,7 +6046,7 @@
         <v>301132</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E63" s="4">
         <v>6.86</v>
@@ -6037,7 +6055,7 @@
         <v>35.37</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H63" s="4">
         <v>2.88</v>
@@ -6049,7 +6067,7 @@
         <v>6.59</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L63" s="11"/>
       <c r="M63" s="4">
@@ -6065,21 +6083,21 @@
         <v>1.56</v>
       </c>
       <c r="Q63" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T63" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U63" s="14">
-        <v>0</v>
-      </c>
-      <c r="V63" s="15">
+        <v>25</v>
+      </c>
+      <c r="R63" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T63" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U63" s="16">
+        <v>0</v>
+      </c>
+      <c r="V63" s="17">
         <v>3.76</v>
       </c>
     </row>
@@ -6094,7 +6112,7 @@
         <v>301137</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E64" s="4">
         <v>-3.58</v>
@@ -6103,7 +6121,7 @@
         <v>38.55</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H64" s="4">
         <v>-0.36</v>
@@ -6115,7 +6133,7 @@
         <v>2.59</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L64" s="11"/>
       <c r="M64" s="4">
@@ -6131,21 +6149,21 @@
         <v>-0.77</v>
       </c>
       <c r="Q64" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R64" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S64" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T64" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U64" s="17">
+        <v>25</v>
+      </c>
+      <c r="R64" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S64" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T64" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U64" s="19">
         <v>1</v>
       </c>
-      <c r="V64" s="15">
+      <c r="V64" s="17">
         <v>7.78</v>
       </c>
     </row>
@@ -6160,7 +6178,7 @@
         <v>301141</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E65" s="4">
         <v>0.49</v>
@@ -6169,7 +6187,7 @@
         <v>62</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H65" s="4">
         <v>-5.48</v>
@@ -6181,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L65" s="11"/>
       <c r="M65" s="4">
@@ -6197,21 +6215,21 @@
         <v>-0.41</v>
       </c>
       <c r="Q65" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T65" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U65" s="14">
-        <v>0</v>
-      </c>
-      <c r="V65" s="15">
+        <v>25</v>
+      </c>
+      <c r="R65" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S65" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T65" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U65" s="16">
+        <v>0</v>
+      </c>
+      <c r="V65" s="17">
         <v>0.47</v>
       </c>
     </row>
@@ -6226,7 +6244,7 @@
         <v>301150</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E66" s="6">
         <v>19.99</v>
@@ -6235,7 +6253,7 @@
         <v>23.89</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H66" s="4">
         <v>2.01</v>
@@ -6247,7 +6265,7 @@
         <v>14.73</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L66" s="11"/>
       <c r="M66" s="4">
@@ -6262,22 +6280,22 @@
       <c r="P66" s="12">
         <v>4.37</v>
       </c>
-      <c r="Q66" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="R66" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S66" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T66" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U66" s="17">
+      <c r="Q66" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R66" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S66" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T66" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U66" s="19">
         <v>1</v>
       </c>
-      <c r="V66" s="15">
+      <c r="V66" s="17">
         <v>13.48</v>
       </c>
     </row>
@@ -6292,7 +6310,7 @@
         <v>301176</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E67" s="6">
         <v>20</v>
@@ -6301,7 +6319,7 @@
         <v>32.64</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H67" s="4">
         <v>5.94</v>
@@ -6313,7 +6331,7 @@
         <v>16.05</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L67" s="11"/>
       <c r="M67" s="4">
@@ -6329,21 +6347,21 @@
         <v>2.28</v>
       </c>
       <c r="Q67" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S67" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="T67" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U67" s="17">
+        <v>25</v>
+      </c>
+      <c r="R67" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S67" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T67" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U67" s="19">
         <v>1</v>
       </c>
-      <c r="V67" s="15">
+      <c r="V67" s="17">
         <v>2.04</v>
       </c>
     </row>
@@ -6358,7 +6376,7 @@
         <v>301205</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E68" s="4">
         <v>-0.85</v>
@@ -6367,7 +6385,7 @@
         <v>96.6</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H68" s="4">
         <v>-4.38</v>
@@ -6379,7 +6397,7 @@
         <v>1.04</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L68" s="11"/>
       <c r="M68" s="4">
@@ -6395,21 +6413,21 @@
         <v>-0.22</v>
       </c>
       <c r="Q68" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R68" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S68" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T68" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U68" s="14">
-        <v>0</v>
-      </c>
-      <c r="V68" s="15">
+        <v>25</v>
+      </c>
+      <c r="R68" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S68" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T68" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U68" s="16">
+        <v>0</v>
+      </c>
+      <c r="V68" s="17">
         <v>4.23</v>
       </c>
     </row>
@@ -6424,7 +6442,7 @@
         <v>301206</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E69" s="4">
         <v>-3.56</v>
@@ -6433,7 +6451,7 @@
         <v>31.14</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H69" s="4">
         <v>-1.32</v>
@@ -6445,7 +6463,7 @@
         <v>1.7</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L69" s="11"/>
       <c r="M69" s="4">
@@ -6461,21 +6479,21 @@
         <v>-1.34</v>
       </c>
       <c r="Q69" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R69" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T69" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U69" s="14">
-        <v>0</v>
-      </c>
-      <c r="V69" s="15">
+        <v>25</v>
+      </c>
+      <c r="R69" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S69" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T69" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U69" s="16">
+        <v>0</v>
+      </c>
+      <c r="V69" s="17">
         <v>1.59</v>
       </c>
     </row>
@@ -6490,7 +6508,7 @@
         <v>301213</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E70" s="4">
         <v>-2.19</v>
@@ -6499,7 +6517,7 @@
         <v>57.51</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H70" s="4">
         <v>-1.76</v>
@@ -6511,7 +6529,7 @@
         <v>0.85</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L70" s="11"/>
       <c r="M70" s="4">
@@ -6527,21 +6545,21 @@
         <v>-0.6</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R70" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S70" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T70" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U70" s="14">
-        <v>0</v>
-      </c>
-      <c r="V70" s="15">
+        <v>25</v>
+      </c>
+      <c r="R70" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S70" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T70" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U70" s="16">
+        <v>0</v>
+      </c>
+      <c r="V70" s="17">
         <v>2.13</v>
       </c>
     </row>
@@ -6556,7 +6574,7 @@
         <v>301311</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E71" s="4">
         <v>-3.59</v>
@@ -6565,7 +6583,7 @@
         <v>21.46</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H71" s="4">
         <v>-5.04</v>
@@ -6577,7 +6595,7 @@
         <v>-0.23</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L71" s="11"/>
       <c r="M71" s="4">
@@ -6593,21 +6611,21 @@
         <v>-1.3</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R71" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S71" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T71" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U71" s="14">
-        <v>0</v>
-      </c>
-      <c r="V71" s="15">
+        <v>25</v>
+      </c>
+      <c r="R71" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S71" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T71" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U71" s="16">
+        <v>0</v>
+      </c>
+      <c r="V71" s="17">
         <v>5.6</v>
       </c>
     </row>
@@ -6622,7 +6640,7 @@
         <v>301312</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E72" s="4">
         <v>5.09</v>
@@ -6631,7 +6649,7 @@
         <v>47.06</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H72" s="4">
         <v>-9.26</v>
@@ -6643,7 +6661,7 @@
         <v>2</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L72" s="11"/>
       <c r="M72" s="4">
@@ -6659,21 +6677,21 @@
         <v>1.22</v>
       </c>
       <c r="Q72" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R72" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S72" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T72" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U72" s="14">
-        <v>0</v>
-      </c>
-      <c r="V72" s="15">
+        <v>25</v>
+      </c>
+      <c r="R72" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S72" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T72" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U72" s="16">
+        <v>0</v>
+      </c>
+      <c r="V72" s="17">
         <v>1.65</v>
       </c>
     </row>
@@ -6688,7 +6706,7 @@
         <v>301319</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E73" s="4">
         <v>1.75</v>
@@ -6697,7 +6715,7 @@
         <v>31.36</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H73" s="4">
         <v>-4.69</v>
@@ -6709,7 +6727,7 @@
         <v>-0.61</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L73" s="11"/>
       <c r="M73" s="4">
@@ -6725,21 +6743,21 @@
         <v>1.08</v>
       </c>
       <c r="Q73" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R73" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S73" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T73" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U73" s="14">
-        <v>0</v>
-      </c>
-      <c r="V73" s="15">
+        <v>25</v>
+      </c>
+      <c r="R73" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S73" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T73" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U73" s="16">
+        <v>0</v>
+      </c>
+      <c r="V73" s="17">
         <v>-0.47</v>
       </c>
     </row>
@@ -6754,7 +6772,7 @@
         <v>301345</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E74" s="4">
         <v>3.59</v>
@@ -6763,7 +6781,7 @@
         <v>133.01</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H74" s="4">
         <v>1.5</v>
@@ -6775,7 +6793,7 @@
         <v>3.2</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L74" s="11"/>
       <c r="M74" s="4">
@@ -6791,21 +6809,21 @@
         <v>-0.05</v>
       </c>
       <c r="Q74" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R74" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S74" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T74" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U74" s="14">
-        <v>0</v>
-      </c>
-      <c r="V74" s="15">
+        <v>25</v>
+      </c>
+      <c r="R74" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S74" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T74" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U74" s="16">
+        <v>0</v>
+      </c>
+      <c r="V74" s="17">
         <v>-2.28</v>
       </c>
     </row>
@@ -6820,7 +6838,7 @@
         <v>301357</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E75" s="4">
         <v>2.82</v>
@@ -6829,7 +6847,7 @@
         <v>80.19</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H75" s="4">
         <v>-0.24</v>
@@ -6841,7 +6859,7 @@
         <v>2.57</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L75" s="11"/>
       <c r="M75" s="4">
@@ -6857,21 +6875,21 @@
         <v>-1.79</v>
       </c>
       <c r="Q75" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R75" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S75" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T75" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U75" s="17">
+        <v>25</v>
+      </c>
+      <c r="R75" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S75" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T75" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U75" s="19">
         <v>1</v>
       </c>
-      <c r="V75" s="15">
+      <c r="V75" s="17">
         <v>2.54</v>
       </c>
     </row>
@@ -6886,7 +6904,7 @@
         <v>301373</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E76" s="4">
         <v>1.36</v>
@@ -6895,7 +6913,7 @@
         <v>33.43</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H76" s="4">
         <v>-4.13</v>
@@ -6907,7 +6925,7 @@
         <v>0.69</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L76" s="11"/>
       <c r="M76" s="4">
@@ -6923,21 +6941,21 @@
         <v>-1.11</v>
       </c>
       <c r="Q76" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R76" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S76" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T76" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U76" s="14">
-        <v>0</v>
-      </c>
-      <c r="V76" s="15">
+        <v>25</v>
+      </c>
+      <c r="R76" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S76" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T76" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U76" s="16">
+        <v>0</v>
+      </c>
+      <c r="V76" s="17">
         <v>3.18</v>
       </c>
     </row>
@@ -6952,7 +6970,7 @@
         <v>301379</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E77" s="4">
         <v>1.92</v>
@@ -6961,7 +6979,7 @@
         <v>26.55</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H77" s="4">
         <v>0.68</v>
@@ -6973,7 +6991,7 @@
         <v>4.33</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L77" s="11"/>
       <c r="M77" s="4">
@@ -6989,21 +7007,21 @@
         <v>-0.33</v>
       </c>
       <c r="Q77" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R77" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S77" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T77" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U77" s="14">
-        <v>0</v>
-      </c>
-      <c r="V77" s="15">
+        <v>25</v>
+      </c>
+      <c r="R77" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S77" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T77" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U77" s="16">
+        <v>0</v>
+      </c>
+      <c r="V77" s="17">
         <v>0.42</v>
       </c>
     </row>
@@ -7018,7 +7036,7 @@
         <v>301408</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E78" s="4">
         <v>-0.77</v>
@@ -7027,7 +7045,7 @@
         <v>14.24</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H78" s="4">
         <v>0.56</v>
@@ -7039,7 +7057,7 @@
         <v>3.79</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L78" s="11"/>
       <c r="M78" s="4">
@@ -7055,21 +7073,21 @@
         <v>-1.2</v>
       </c>
       <c r="Q78" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R78" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S78" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T78" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U78" s="14">
-        <v>0</v>
-      </c>
-      <c r="V78" s="15">
+        <v>25</v>
+      </c>
+      <c r="R78" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S78" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T78" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U78" s="16">
+        <v>0</v>
+      </c>
+      <c r="V78" s="17">
         <v>8.38</v>
       </c>
     </row>
@@ -7084,7 +7102,7 @@
         <v>301421</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E79" s="4">
         <v>-1.26</v>
@@ -7093,7 +7111,7 @@
         <v>74.4</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H79" s="4">
         <v>-1.05</v>
@@ -7105,7 +7123,7 @@
         <v>2.63</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L79" s="11"/>
       <c r="M79" s="4">
@@ -7121,21 +7139,21 @@
         <v>-0.81</v>
       </c>
       <c r="Q79" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R79" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S79" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T79" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U79" s="17">
+        <v>25</v>
+      </c>
+      <c r="R79" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S79" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T79" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U79" s="19">
         <v>1</v>
       </c>
-      <c r="V79" s="15">
+      <c r="V79" s="17">
         <v>12.83</v>
       </c>
     </row>
@@ -7150,7 +7168,7 @@
         <v>301511</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E80" s="4">
         <v>3.16</v>
@@ -7159,7 +7177,7 @@
         <v>23.48</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H80" s="4">
         <v>3.92</v>
@@ -7171,7 +7189,7 @@
         <v>9.03</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L80" s="11"/>
       <c r="M80" s="4">
@@ -7187,21 +7205,21 @@
         <v>0.21</v>
       </c>
       <c r="Q80" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R80" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S80" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T80" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U80" s="14">
-        <v>0</v>
-      </c>
-      <c r="V80" s="15">
+        <v>25</v>
+      </c>
+      <c r="R80" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S80" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T80" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U80" s="16">
+        <v>0</v>
+      </c>
+      <c r="V80" s="17">
         <v>0.87</v>
       </c>
     </row>
@@ -7216,7 +7234,7 @@
         <v>301622</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E81" s="4">
         <v>2.23</v>
@@ -7225,7 +7243,7 @@
         <v>85.69</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H81" s="4">
         <v>-4.63</v>
@@ -7237,7 +7255,7 @@
         <v>-0.69</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L81" s="11"/>
       <c r="M81" s="4">
@@ -7253,21 +7271,21 @@
         <v>0.39</v>
       </c>
       <c r="Q81" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R81" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S81" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T81" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U81" s="14">
-        <v>0</v>
-      </c>
-      <c r="V81" s="15">
+        <v>25</v>
+      </c>
+      <c r="R81" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S81" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T81" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U81" s="16">
+        <v>0</v>
+      </c>
+      <c r="V81" s="17">
         <v>1.89</v>
       </c>
     </row>
@@ -7282,7 +7300,7 @@
         <v>688062</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E82" s="4">
         <v>6.72</v>
@@ -7291,7 +7309,7 @@
         <v>30.48</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H82" s="4">
         <v>0.49</v>
@@ -7303,7 +7321,7 @@
         <v>3.28</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L82" s="11"/>
       <c r="M82" s="4">
@@ -7319,21 +7337,21 @@
         <v>0.45</v>
       </c>
       <c r="Q82" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R82" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S82" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T82" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U82" s="14">
-        <v>0</v>
-      </c>
-      <c r="V82" s="15">
+        <v>25</v>
+      </c>
+      <c r="R82" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S82" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T82" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U82" s="16">
+        <v>0</v>
+      </c>
+      <c r="V82" s="17">
         <v>4.06</v>
       </c>
     </row>
@@ -7348,7 +7366,7 @@
         <v>688117</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E83" s="4">
         <v>1.29</v>
@@ -7357,7 +7375,7 @@
         <v>33.65</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H83" s="4">
         <v>4.87</v>
@@ -7369,7 +7387,7 @@
         <v>8.92</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L83" s="11"/>
       <c r="M83" s="4">
@@ -7385,21 +7403,21 @@
         <v>-0.22</v>
       </c>
       <c r="Q83" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R83" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S83" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T83" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U83" s="14">
-        <v>0</v>
-      </c>
-      <c r="V83" s="15">
+        <v>25</v>
+      </c>
+      <c r="R83" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S83" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T83" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U83" s="16">
+        <v>0</v>
+      </c>
+      <c r="V83" s="17">
         <v>3.51</v>
       </c>
     </row>
@@ -7414,7 +7432,7 @@
         <v>688151</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E84" s="4">
         <v>-4.17</v>
@@ -7423,7 +7441,7 @@
         <v>24.83</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H84" s="4">
         <v>1.57</v>
@@ -7435,7 +7453,7 @@
         <v>4.15</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L84" s="11"/>
       <c r="M84" s="4">
@@ -7451,21 +7469,21 @@
         <v>-0.62</v>
       </c>
       <c r="Q84" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R84" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S84" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T84" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U84" s="14">
-        <v>0</v>
-      </c>
-      <c r="V84" s="15">
+        <v>25</v>
+      </c>
+      <c r="R84" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S84" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T84" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U84" s="16">
+        <v>0</v>
+      </c>
+      <c r="V84" s="17">
         <v>3.26</v>
       </c>
     </row>
@@ -7480,7 +7498,7 @@
         <v>688199</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E85" s="4">
         <v>8.25</v>
@@ -7489,7 +7507,7 @@
         <v>27.17</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H85" s="4">
         <v>-2.5</v>
@@ -7501,7 +7519,7 @@
         <v>1.88</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L85" s="11"/>
       <c r="M85" s="4">
@@ -7517,21 +7535,21 @@
         <v>0.57</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R85" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S85" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T85" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U85" s="14">
-        <v>0</v>
-      </c>
-      <c r="V85" s="15">
+        <v>25</v>
+      </c>
+      <c r="R85" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S85" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T85" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U85" s="16">
+        <v>0</v>
+      </c>
+      <c r="V85" s="17">
         <v>2.55</v>
       </c>
     </row>
@@ -7546,7 +7564,7 @@
         <v>688353</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E86" s="6">
         <v>15.36</v>
@@ -7555,7 +7573,7 @@
         <v>39.8</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H86" s="4">
         <v>-9.05</v>
@@ -7567,7 +7585,7 @@
         <v>-2.36</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L86" s="11"/>
       <c r="M86" s="4">
@@ -7582,22 +7600,22 @@
       <c r="P86" s="12">
         <v>1.53</v>
       </c>
-      <c r="Q86" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="R86" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S86" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T86" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U86" s="17">
+      <c r="Q86" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R86" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S86" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T86" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U86" s="19">
         <v>1</v>
       </c>
-      <c r="V86" s="15">
+      <c r="V86" s="17">
         <v>10.4</v>
       </c>
     </row>
@@ -7612,7 +7630,7 @@
         <v>688499</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E87" s="4">
         <v>1.97</v>
@@ -7621,7 +7639,7 @@
         <v>39.85</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H87" s="4">
         <v>-0.58</v>
@@ -7633,7 +7651,7 @@
         <v>2.03</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L87" s="11"/>
       <c r="M87" s="4">
@@ -7649,21 +7667,21 @@
         <v>0.4</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R87" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S87" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T87" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U87" s="14">
-        <v>0</v>
-      </c>
-      <c r="V87" s="15">
+        <v>25</v>
+      </c>
+      <c r="R87" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S87" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T87" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U87" s="16">
+        <v>0</v>
+      </c>
+      <c r="V87" s="17">
         <v>2.43</v>
       </c>
     </row>
@@ -7678,7 +7696,7 @@
         <v>688543</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E88" s="4">
         <v>1.07</v>
@@ -7687,7 +7705,7 @@
         <v>57.41</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H88" s="4">
         <v>-0.89</v>
@@ -7699,7 +7717,7 @@
         <v>0.92</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L88" s="11"/>
       <c r="M88" s="4">
@@ -7715,21 +7733,21 @@
         <v>0.41</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R88" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S88" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T88" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U88" s="14">
-        <v>0</v>
-      </c>
-      <c r="V88" s="15">
+        <v>25</v>
+      </c>
+      <c r="R88" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S88" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T88" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U88" s="16">
+        <v>0</v>
+      </c>
+      <c r="V88" s="17">
         <v>5.67</v>
       </c>
     </row>
@@ -7744,7 +7762,7 @@
         <v>688573</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E89" s="4">
         <v>4.8</v>
@@ -7753,7 +7771,7 @@
         <v>34.9</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H89" s="4">
         <v>-12.03</v>
@@ -7765,7 +7783,7 @@
         <v>-1.15</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L89" s="11"/>
       <c r="M89" s="4">
@@ -7781,21 +7799,21 @@
         <v>-1.26</v>
       </c>
       <c r="Q89" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R89" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S89" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T89" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U89" s="14">
-        <v>0</v>
-      </c>
-      <c r="V89" s="15">
+        <v>25</v>
+      </c>
+      <c r="R89" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S89" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T89" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U89" s="16">
+        <v>0</v>
+      </c>
+      <c r="V89" s="17">
         <v>8.61</v>
       </c>
     </row>
@@ -7810,7 +7828,7 @@
         <v>688591</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E90" s="4">
         <v>0.19</v>
@@ -7819,7 +7837,7 @@
         <v>48.39</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H90" s="4">
         <v>-1.74</v>
@@ -7831,7 +7849,7 @@
         <v>0.64</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L90" s="11"/>
       <c r="M90" s="4">
@@ -7847,21 +7865,21 @@
         <v>-0.31</v>
       </c>
       <c r="Q90" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R90" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S90" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T90" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U90" s="14">
-        <v>0</v>
-      </c>
-      <c r="V90" s="15">
+        <v>25</v>
+      </c>
+      <c r="R90" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S90" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T90" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U90" s="16">
+        <v>0</v>
+      </c>
+      <c r="V90" s="17">
         <v>5.26</v>
       </c>
     </row>
